--- a/notebooks/baseline_data.xlsx
+++ b/notebooks/baseline_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmik\OneDrive\Desktop\NSS\Python\Projects\Cycling_Capstone\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01238D64-8483-48BA-BBCD-20405CCA4829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF024D-294C-4A5B-8287-9FEC929BA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2261,7 +2261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2566,12 +2566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="5" max="5" width="37.21875" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="28.44140625" customWidth="1"/>
@@ -2583,7 +2585,7 @@
     <col min="14" max="14" width="36.77734375" customWidth="1"/>
     <col min="15" max="15" width="40.44140625" customWidth="1"/>
     <col min="16" max="16" width="46.5546875" customWidth="1"/>
-    <col min="17" max="17" width="45.44140625" customWidth="1"/>
+    <col min="17" max="17" width="50.77734375" customWidth="1"/>
     <col min="18" max="18" width="112.88671875" customWidth="1"/>
     <col min="19" max="19" width="35" customWidth="1"/>
     <col min="20" max="20" width="26.77734375" customWidth="1"/>

--- a/notebooks/baseline_data.xlsx
+++ b/notebooks/baseline_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmik\OneDrive\Desktop\NSS\Python\Projects\Cycling_Capstone\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D3FD1-DA3C-4894-9816-52081780E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13E46A-4D53-4DA4-BACA-8105B5CFAC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9240" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1819,15 +1819,6 @@
     <t>EWAN Caleb - 4:32:13, HOFSTETTER Hugo - 4:32:13, MCLAY Daniel - 4:32:13, NIZZOLO Giacomo - 4:32:13</t>
   </si>
   <si>
-    <t>VAN HOOYDONCK Nathan</t>
-  </si>
-  <si>
-    <t>VAN DER HOORN Taco</t>
-  </si>
-  <si>
-    <t>VAN HOOYDONCK Nathan - 4:32:26, MOHORIČ Matej - 4:32:26, VAN DER HOORN Taco - 4:32:26, WELLENS Tim - 4:32:26</t>
-  </si>
-  <si>
     <t>2017-10-07</t>
   </si>
   <si>
@@ -1961,17 +1952,27 @@
   </si>
   <si>
     <t>NNE</t>
+  </si>
+  <si>
+    <t>2020liege-bastogne-liege</t>
+  </si>
+  <si>
+    <t>Primož Roglič</t>
+  </si>
+  <si>
+    <t>Race distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1983,6 +1984,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2031,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2048,6 +2055,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2350,25 +2364,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection activeCell="A79" sqref="A79"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="topRight" activeCell="AD79" sqref="AD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
     <col min="2" max="2" width="70.44140625" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="47.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="36.21875" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" customWidth="1"/>
     <col min="13" max="13" width="36.77734375" customWidth="1"/>
@@ -2390,7 +2404,7 @@
     <col min="29" max="29" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2473,13 +2487,16 @@
         <v>25</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>646</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +2530,7 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="M2">
@@ -2562,10 +2579,13 @@
         <v>15.733333333333301</v>
       </c>
       <c r="AC2" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD2">
+        <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2599,7 +2619,7 @@
       <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="M3">
@@ -2648,10 +2668,13 @@
         <v>15.8666666666666</v>
       </c>
       <c r="AC3" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD3">
+        <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2685,7 +2708,7 @@
       <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="8" t="s">
         <v>52</v>
       </c>
       <c r="M4">
@@ -2734,10 +2757,13 @@
         <v>16.466666666666601</v>
       </c>
       <c r="AC4" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD4">
+        <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2771,7 +2797,7 @@
       <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="M5">
@@ -2820,10 +2846,13 @@
         <v>13.566666666666601</v>
       </c>
       <c r="AC5" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD5">
+        <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2857,7 +2886,7 @@
       <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M6">
@@ -2909,10 +2938,13 @@
         <v>13.6</v>
       </c>
       <c r="AC6" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD6">
+        <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2946,7 +2978,7 @@
       <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="8" t="s">
         <v>77</v>
       </c>
       <c r="M7">
@@ -2998,10 +3030,13 @@
         <v>13.6</v>
       </c>
       <c r="AC7" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD7">
+        <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -3035,7 +3070,7 @@
       <c r="K8" t="s">
         <v>109</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="8" t="s">
         <v>110</v>
       </c>
       <c r="M8">
@@ -3084,10 +3119,13 @@
         <v>15</v>
       </c>
       <c r="AC8" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD8">
+        <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3121,7 +3159,7 @@
       <c r="K9" t="s">
         <v>92</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="8" t="s">
         <v>118</v>
       </c>
       <c r="M9">
@@ -3170,10 +3208,13 @@
         <v>14.7666666666666</v>
       </c>
       <c r="AC9" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD9">
+        <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3207,7 +3248,7 @@
       <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="8" t="s">
         <v>124</v>
       </c>
       <c r="M10">
@@ -3256,10 +3297,13 @@
         <v>14.5</v>
       </c>
       <c r="AC10" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD10">
+        <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -3293,7 +3337,7 @@
       <c r="K11" t="s">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="8" t="s">
         <v>128</v>
       </c>
       <c r="M11">
@@ -3342,10 +3386,13 @@
         <v>14.7666666666666</v>
       </c>
       <c r="AC11" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD11">
+        <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -3379,7 +3426,7 @@
       <c r="K12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="8" t="s">
         <v>132</v>
       </c>
       <c r="M12">
@@ -3428,10 +3475,13 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC12" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD12">
+        <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -3465,7 +3515,7 @@
       <c r="K13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="8" t="s">
         <v>139</v>
       </c>
       <c r="M13">
@@ -3517,10 +3567,13 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC13" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD13">
+        <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -3554,7 +3607,7 @@
       <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="8" t="s">
         <v>146</v>
       </c>
       <c r="M14">
@@ -3606,15 +3659,18 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC14" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD14">
+        <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C15">
         <v>2017</v>
@@ -3643,7 +3699,7 @@
       <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="8" t="s">
         <v>152</v>
       </c>
       <c r="M15">
@@ -3692,15 +3748,18 @@
         <v>18</v>
       </c>
       <c r="AC15" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD15">
+        <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -3729,7 +3788,7 @@
       <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="8" t="s">
         <v>160</v>
       </c>
       <c r="M16">
@@ -3778,15 +3837,18 @@
         <v>15.8</v>
       </c>
       <c r="AC16" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD16">
+        <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -3815,7 +3877,7 @@
       <c r="K17" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="8" t="s">
         <v>168</v>
       </c>
       <c r="M17">
@@ -3864,15 +3926,18 @@
         <v>17</v>
       </c>
       <c r="AC17" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD17">
+        <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -3901,7 +3966,7 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="8" t="s">
         <v>175</v>
       </c>
       <c r="M18">
@@ -3950,15 +4015,18 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC18" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD18">
+        <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3987,7 +4055,7 @@
       <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="8" t="s">
         <v>180</v>
       </c>
       <c r="M19">
@@ -4039,15 +4107,18 @@
         <v>17.2</v>
       </c>
       <c r="AC19" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD19">
+        <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -4076,7 +4147,7 @@
       <c r="K20" t="s">
         <v>185</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="8" t="s">
         <v>186</v>
       </c>
       <c r="M20">
@@ -4128,10 +4199,13 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AC20" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="AD20">
+        <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -4165,7 +4239,7 @@
       <c r="K21" t="s">
         <v>100</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="8" t="s">
         <v>193</v>
       </c>
       <c r="M21">
@@ -4214,10 +4288,13 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC21" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD21">
+        <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -4251,7 +4328,7 @@
       <c r="K22" t="s">
         <v>100</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="8" t="s">
         <v>200</v>
       </c>
       <c r="M22">
@@ -4300,10 +4377,13 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC22" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD22">
+        <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -4337,7 +4417,7 @@
       <c r="K23" t="s">
         <v>185</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="8" t="s">
         <v>205</v>
       </c>
       <c r="M23">
@@ -4389,10 +4469,13 @@
         <v>15.633333333333301</v>
       </c>
       <c r="AC23" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD23">
+        <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -4426,7 +4509,7 @@
       <c r="K24" t="s">
         <v>185</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="8" t="s">
         <v>212</v>
       </c>
       <c r="M24">
@@ -4478,10 +4561,13 @@
         <v>17.3</v>
       </c>
       <c r="AC24" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD24">
+        <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -4515,7 +4601,7 @@
       <c r="K25" t="s">
         <v>217</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="8" t="s">
         <v>218</v>
       </c>
       <c r="M25">
@@ -4564,10 +4650,13 @@
         <v>17.066666666666599</v>
       </c>
       <c r="AC25" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD25">
+        <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -4601,7 +4690,7 @@
       <c r="K26" t="s">
         <v>88</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="8" t="s">
         <v>226</v>
       </c>
       <c r="M26">
@@ -4650,10 +4739,13 @@
         <v>17.066666666666599</v>
       </c>
       <c r="AC26" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD26">
+        <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -4687,7 +4779,7 @@
       <c r="K27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="8" t="s">
         <v>232</v>
       </c>
       <c r="M27">
@@ -4736,10 +4828,13 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AC27" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD27">
+        <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -4773,7 +4868,7 @@
       <c r="K28" t="s">
         <v>236</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="8" t="s">
         <v>237</v>
       </c>
       <c r="M28">
@@ -4822,10 +4917,13 @@
         <v>16.7</v>
       </c>
       <c r="AC28" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD28">
+        <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -4859,7 +4957,7 @@
       <c r="K29" t="s">
         <v>61</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="8" t="s">
         <v>241</v>
       </c>
       <c r="M29">
@@ -4908,10 +5006,13 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC29" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD29">
+        <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -4945,7 +5046,7 @@
       <c r="K30" t="s">
         <v>103</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="8" t="s">
         <v>245</v>
       </c>
       <c r="M30">
@@ -4997,10 +5098,13 @@
         <v>18</v>
       </c>
       <c r="AC30" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD30">
+        <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>248</v>
       </c>
@@ -5034,7 +5138,7 @@
       <c r="K31" t="s">
         <v>185</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="8" t="s">
         <v>249</v>
       </c>
       <c r="M31">
@@ -5086,10 +5190,13 @@
         <v>18.133333333333301</v>
       </c>
       <c r="AC31" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD31">
+        <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>252</v>
       </c>
@@ -5123,7 +5230,7 @@
       <c r="K32" t="s">
         <v>254</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="8" t="s">
         <v>255</v>
       </c>
       <c r="M32">
@@ -5172,10 +5279,13 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC32" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD32">
+        <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -5209,7 +5319,7 @@
       <c r="K33" t="s">
         <v>29</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M33">
@@ -5258,10 +5368,13 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC33" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD33">
+        <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>269</v>
       </c>
@@ -5295,7 +5408,7 @@
       <c r="K34" t="s">
         <v>100</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="8" t="s">
         <v>270</v>
       </c>
       <c r="M34">
@@ -5344,10 +5457,13 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC34" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="AD34">
+        <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -5381,7 +5497,7 @@
       <c r="K35" t="s">
         <v>275</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M35">
@@ -5430,10 +5546,13 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC35" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="AD35">
+        <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>280</v>
       </c>
@@ -5467,7 +5586,7 @@
       <c r="K36" t="s">
         <v>100</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="8" t="s">
         <v>281</v>
       </c>
       <c r="M36">
@@ -5516,10 +5635,13 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC36" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="AD36">
+        <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -5553,7 +5675,7 @@
       <c r="K37" t="s">
         <v>286</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="8" t="s">
         <v>287</v>
       </c>
       <c r="M37">
@@ -5605,10 +5727,13 @@
         <v>2</v>
       </c>
       <c r="AC37" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="AD37">
+        <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -5642,7 +5767,7 @@
       <c r="K38" t="s">
         <v>76</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="8" t="s">
         <v>293</v>
       </c>
       <c r="M38">
@@ -5694,10 +5819,13 @@
         <v>1.36666666666666</v>
       </c>
       <c r="AC38" t="s">
-        <v>640</v>
+        <v>637</v>
+      </c>
+      <c r="AD38">
+        <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -5731,7 +5859,7 @@
       <c r="K39" t="s">
         <v>254</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="8" t="s">
         <v>300</v>
       </c>
       <c r="M39">
@@ -5780,10 +5908,13 @@
         <v>4.4666666666666597</v>
       </c>
       <c r="AC39" t="s">
-        <v>639</v>
+        <v>636</v>
+      </c>
+      <c r="AD39">
+        <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -5817,7 +5948,7 @@
       <c r="K40" t="s">
         <v>29</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="8" t="s">
         <v>305</v>
       </c>
       <c r="M40">
@@ -5866,10 +5997,13 @@
         <v>1.36666666666666</v>
       </c>
       <c r="AC40" t="s">
-        <v>640</v>
+        <v>637</v>
+      </c>
+      <c r="AD40">
+        <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>310</v>
       </c>
@@ -5903,7 +6037,7 @@
       <c r="K41" t="s">
         <v>42</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="8" t="s">
         <v>311</v>
       </c>
       <c r="M41">
@@ -5952,161 +6086,134 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC41" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD41">
+        <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>644</v>
       </c>
       <c r="B42" t="s">
         <v>299</v>
       </c>
       <c r="C42">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>645</v>
       </c>
       <c r="E42">
-        <v>6177</v>
+        <v>1877</v>
       </c>
       <c r="F42">
-        <v>6344</v>
+        <v>7854</v>
       </c>
       <c r="G42">
-        <v>2623</v>
+        <v>5542</v>
       </c>
       <c r="H42">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="I42">
-        <v>7973</v>
+        <v>7788</v>
       </c>
       <c r="J42">
-        <v>3330</v>
+        <v>2817</v>
       </c>
       <c r="K42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" t="s">
-        <v>317</v>
+        <v>61</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0.27224537037037039</v>
       </c>
       <c r="M42">
-        <v>38.92</v>
-      </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" t="s">
-        <v>318</v>
-      </c>
-      <c r="P42" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>277</v>
-      </c>
-      <c r="R42" t="s">
-        <v>319</v>
-      </c>
-      <c r="S42" t="s">
-        <v>58</v>
+        <v>39.33</v>
       </c>
       <c r="T42" s="4">
-        <v>44311</v>
+        <v>44108</v>
       </c>
       <c r="U42" t="s">
         <v>37</v>
       </c>
       <c r="V42">
-        <v>181</v>
-      </c>
-      <c r="W42" t="s">
-        <v>303</v>
-      </c>
-      <c r="X42" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>1.427083333333333</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>44311.427083333343</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>15.733333333333301</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>637</v>
+        <v>182</v>
+      </c>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="7"/>
+      <c r="AD42">
+        <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
         <v>299</v>
       </c>
       <c r="C43">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E43">
-        <v>3084</v>
+        <v>6177</v>
       </c>
       <c r="F43">
-        <v>3994</v>
+        <v>6344</v>
       </c>
       <c r="G43">
-        <v>3845</v>
+        <v>2623</v>
       </c>
       <c r="H43">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="I43">
-        <v>3874</v>
+        <v>7973</v>
       </c>
       <c r="J43">
-        <v>1276</v>
+        <v>3330</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
-      </c>
-      <c r="L43" t="s">
-        <v>322</v>
+        <v>76</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="M43">
-        <v>41.412999999999997</v>
+        <v>38.92</v>
       </c>
       <c r="N43" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="P43" t="s">
-        <v>289</v>
+        <v>47</v>
       </c>
       <c r="Q43" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="R43" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S43" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="T43" s="4">
-        <v>44675</v>
+        <v>44311</v>
       </c>
       <c r="U43" t="s">
         <v>37</v>
       </c>
       <c r="V43">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W43" t="s">
         <v>303</v>
@@ -6114,31 +6221,31 @@
       <c r="X43" t="s">
         <v>303</v>
       </c>
-      <c r="Y43">
-        <v>14</v>
-      </c>
       <c r="Z43" s="2">
-        <v>1.430555555555556</v>
+        <v>1.427083333333333</v>
       </c>
       <c r="AA43" s="2">
-        <v>44675.430555555547</v>
+        <v>44311.427083333343</v>
       </c>
       <c r="AB43" s="7">
-        <v>15.466666666666599</v>
+        <v>15.733333333333301</v>
       </c>
       <c r="AC43" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD43">
+        <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s">
         <v>299</v>
       </c>
       <c r="C44">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -6162,40 +6269,40 @@
         <v>1276</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
-      </c>
-      <c r="L44" t="s">
-        <v>329</v>
+        <v>321</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="M44">
-        <v>41.206000000000003</v>
+        <v>41.412999999999997</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="O44" t="s">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Q44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="R44" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="S44" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="T44" s="4">
-        <v>45039</v>
+        <v>44675</v>
       </c>
       <c r="U44" t="s">
         <v>37</v>
       </c>
       <c r="V44">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="W44" t="s">
         <v>303</v>
@@ -6204,173 +6311,182 @@
         <v>303</v>
       </c>
       <c r="Y44">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z44" s="2">
-        <v>1.4409722222222221</v>
+        <v>1.430555555555556</v>
       </c>
       <c r="AA44" s="2">
-        <v>45039.440972222219</v>
+        <v>44675.430555555547</v>
       </c>
       <c r="AB44" s="7">
-        <v>15.233333333333301</v>
+        <v>15.466666666666599</v>
       </c>
       <c r="AC44" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD44">
+        <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="C45">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E45">
-        <v>4701</v>
+        <v>3084</v>
       </c>
       <c r="F45">
-        <v>3670</v>
+        <v>3994</v>
       </c>
       <c r="G45">
-        <v>3561</v>
+        <v>3845</v>
       </c>
       <c r="H45">
-        <v>755</v>
+        <v>120</v>
       </c>
       <c r="I45">
-        <v>3304</v>
+        <v>3874</v>
       </c>
       <c r="J45">
-        <v>3579</v>
+        <v>1276</v>
       </c>
       <c r="K45" t="s">
-        <v>341</v>
-      </c>
-      <c r="L45" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="M45">
-        <v>40.729999999999997</v>
+        <v>41.206000000000003</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="Q45" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="R45" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="T45" s="4">
-        <v>42812</v>
+        <v>45039</v>
       </c>
       <c r="U45" t="s">
         <v>37</v>
       </c>
       <c r="V45">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="W45" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="X45" t="s">
-        <v>344</v>
+        <v>303</v>
+      </c>
+      <c r="Y45">
+        <v>12</v>
       </c>
       <c r="Z45" s="2">
-        <v>1.4513888888888891</v>
+        <v>1.4409722222222221</v>
       </c>
       <c r="AA45" s="2">
-        <v>42812.451388888891</v>
+        <v>45039.440972222219</v>
       </c>
       <c r="AB45" s="7">
-        <v>16.3333333333333</v>
+        <v>15.233333333333301</v>
       </c>
       <c r="AC45" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD45">
+        <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s">
         <v>340</v>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>4763</v>
+        <v>4701</v>
       </c>
       <c r="F46">
-        <v>9872</v>
+        <v>3670</v>
       </c>
       <c r="G46">
-        <v>3781</v>
+        <v>3561</v>
       </c>
       <c r="H46">
-        <v>274</v>
+        <v>755</v>
       </c>
       <c r="I46">
-        <v>9274</v>
+        <v>3304</v>
       </c>
       <c r="J46">
-        <v>2889</v>
+        <v>3579</v>
       </c>
       <c r="K46" t="s">
-        <v>109</v>
-      </c>
-      <c r="L46" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="M46">
-        <v>40.21</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="N46" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="P46" t="s">
         <v>231</v>
       </c>
       <c r="Q46" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="R46" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="S46" t="s">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="T46" s="4">
-        <v>43176</v>
+        <v>42812</v>
       </c>
       <c r="U46" t="s">
         <v>37</v>
       </c>
       <c r="V46">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="W46" t="s">
         <v>334</v>
@@ -6379,84 +6495,87 @@
         <v>344</v>
       </c>
       <c r="Z46" s="2">
-        <v>1.40625</v>
+        <v>1.4513888888888891</v>
       </c>
       <c r="AA46" s="2">
-        <v>43176.40625</v>
+        <v>42812.451388888891</v>
       </c>
       <c r="AB46" s="7">
-        <v>16.8</v>
+        <v>16.3333333333333</v>
       </c>
       <c r="AC46" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD46">
+        <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s">
         <v>340</v>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="E47">
-        <v>6627</v>
+        <v>4763</v>
       </c>
       <c r="F47">
-        <v>2725</v>
+        <v>9872</v>
       </c>
       <c r="G47">
-        <v>1427</v>
+        <v>3781</v>
       </c>
       <c r="H47">
-        <v>774</v>
+        <v>274</v>
       </c>
       <c r="I47">
-        <v>5233</v>
+        <v>9274</v>
       </c>
       <c r="J47">
-        <v>4583</v>
+        <v>2889</v>
       </c>
       <c r="K47" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" t="s">
-        <v>352</v>
+        <v>109</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="M47">
-        <v>43.625</v>
+        <v>40.21</v>
       </c>
       <c r="N47" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="Q47" t="s">
-        <v>207</v>
+        <v>348</v>
       </c>
       <c r="R47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>350</v>
       </c>
       <c r="T47" s="4">
-        <v>43547</v>
+        <v>43176</v>
       </c>
       <c r="U47" t="s">
         <v>37</v>
       </c>
       <c r="V47">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W47" t="s">
         <v>334</v>
@@ -6465,84 +6584,87 @@
         <v>344</v>
       </c>
       <c r="Z47" s="2">
-        <v>1.4236111111111109</v>
+        <v>1.40625</v>
       </c>
       <c r="AA47" s="2">
-        <v>43547.423611111109</v>
+        <v>43176.40625</v>
       </c>
       <c r="AB47" s="7">
-        <v>16.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="AC47" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD47">
+        <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s">
         <v>340</v>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>7194</v>
+        <v>6627</v>
       </c>
       <c r="F48">
-        <v>1171</v>
+        <v>2725</v>
       </c>
       <c r="G48">
-        <v>2944</v>
+        <v>1427</v>
       </c>
       <c r="H48">
-        <v>1886</v>
+        <v>774</v>
       </c>
       <c r="I48">
-        <v>2044</v>
+        <v>5233</v>
       </c>
       <c r="J48">
-        <v>4221</v>
+        <v>4583</v>
       </c>
       <c r="K48" t="s">
-        <v>61</v>
-      </c>
-      <c r="L48" t="s">
-        <v>355</v>
+        <v>100</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="M48">
-        <v>41.96</v>
+        <v>43.625</v>
       </c>
       <c r="N48" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P48" t="s">
         <v>46</v>
       </c>
       <c r="Q48" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="R48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S48" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="T48" s="4">
-        <v>44051</v>
+        <v>43547</v>
       </c>
       <c r="U48" t="s">
         <v>37</v>
       </c>
       <c r="V48">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="W48" t="s">
         <v>334</v>
@@ -6551,84 +6673,87 @@
         <v>344</v>
       </c>
       <c r="Z48" s="2">
-        <v>1.458333333333333</v>
+        <v>1.4236111111111109</v>
       </c>
       <c r="AA48" s="2">
-        <v>44051.458333333343</v>
+        <v>43547.423611111109</v>
       </c>
       <c r="AB48" s="7">
-        <v>14.533333333333299</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AC48" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD48">
+        <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
         <v>340</v>
       </c>
       <c r="C49">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E49">
-        <v>4613</v>
+        <v>7194</v>
       </c>
       <c r="F49">
-        <v>1309</v>
+        <v>1171</v>
       </c>
       <c r="G49">
-        <v>284</v>
+        <v>2944</v>
       </c>
       <c r="H49">
-        <v>1600</v>
+        <v>1886</v>
       </c>
       <c r="I49">
-        <v>697</v>
+        <v>2044</v>
       </c>
       <c r="J49">
-        <v>3266</v>
+        <v>4221</v>
       </c>
       <c r="K49" t="s">
-        <v>236</v>
-      </c>
-      <c r="L49" t="s">
-        <v>358</v>
+        <v>61</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="M49">
-        <v>45.06</v>
+        <v>41.96</v>
       </c>
       <c r="N49" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s">
         <v>46</v>
       </c>
       <c r="Q49" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="R49" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
       </c>
       <c r="T49" s="4">
-        <v>44275</v>
+        <v>44051</v>
       </c>
       <c r="U49" t="s">
         <v>37</v>
       </c>
       <c r="V49">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="W49" t="s">
         <v>334</v>
@@ -6637,84 +6762,87 @@
         <v>344</v>
       </c>
       <c r="Z49" s="2">
-        <v>1.416666666666667</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="AA49" s="2">
-        <v>44275.416666666657</v>
+        <v>44051.458333333343</v>
       </c>
       <c r="AB49" s="7">
-        <v>14.299999999999899</v>
+        <v>14.533333333333299</v>
       </c>
       <c r="AC49" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD49">
+        <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s">
         <v>340</v>
       </c>
       <c r="C50">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="E50">
-        <v>2947</v>
+        <v>4613</v>
       </c>
       <c r="F50">
-        <v>2331</v>
+        <v>1309</v>
       </c>
       <c r="G50">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="H50">
-        <v>696</v>
+        <v>1600</v>
       </c>
       <c r="I50">
-        <v>1610</v>
+        <v>697</v>
       </c>
       <c r="J50">
-        <v>2810</v>
+        <v>3266</v>
       </c>
       <c r="K50" t="s">
-        <v>286</v>
-      </c>
-      <c r="L50" t="s">
-        <v>361</v>
+        <v>236</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="M50">
-        <v>45.331000000000003</v>
+        <v>45.06</v>
       </c>
       <c r="N50" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" t="s">
         <v>50</v>
       </c>
-      <c r="P50" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>75</v>
-      </c>
       <c r="R50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S50" t="s">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="T50" s="4">
-        <v>44639</v>
+        <v>44275</v>
       </c>
       <c r="U50" t="s">
         <v>37</v>
       </c>
       <c r="V50">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="W50" t="s">
         <v>334</v>
@@ -6723,78 +6851,81 @@
         <v>344</v>
       </c>
       <c r="Z50" s="2">
-        <v>1.4236111111111109</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="AA50" s="2">
-        <v>44639.423611111109</v>
+        <v>44275.416666666657</v>
       </c>
       <c r="AB50" s="7">
-        <v>15.966666666666599</v>
+        <v>14.299999999999899</v>
       </c>
       <c r="AC50" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD50">
+        <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
         <v>340</v>
       </c>
       <c r="C51">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51">
+        <v>2947</v>
+      </c>
+      <c r="F51">
+        <v>2331</v>
+      </c>
+      <c r="G51">
+        <v>352</v>
+      </c>
+      <c r="H51">
+        <v>696</v>
+      </c>
+      <c r="I51">
+        <v>1610</v>
+      </c>
+      <c r="J51">
+        <v>2810</v>
+      </c>
+      <c r="K51" t="s">
+        <v>286</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="M51">
+        <v>45.331000000000003</v>
+      </c>
+      <c r="N51" t="s">
+        <v>169</v>
+      </c>
+      <c r="O51" t="s">
         <v>50</v>
       </c>
-      <c r="E51">
-        <v>6991</v>
-      </c>
-      <c r="F51">
-        <v>1119</v>
-      </c>
-      <c r="G51">
-        <v>968</v>
-      </c>
-      <c r="H51">
-        <v>1286</v>
-      </c>
-      <c r="I51">
-        <v>1042</v>
-      </c>
-      <c r="J51">
-        <v>3090</v>
-      </c>
-      <c r="K51" t="s">
-        <v>365</v>
-      </c>
-      <c r="L51" t="s">
-        <v>366</v>
-      </c>
-      <c r="M51">
-        <v>45.773000000000003</v>
-      </c>
-      <c r="N51" t="s">
-        <v>367</v>
-      </c>
-      <c r="O51" t="s">
-        <v>60</v>
-      </c>
       <c r="P51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q51" t="s">
         <v>75</v>
       </c>
-      <c r="Q51" t="s">
-        <v>246</v>
-      </c>
       <c r="R51" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="S51" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="T51" s="4">
-        <v>45003</v>
+        <v>44639</v>
       </c>
       <c r="U51" t="s">
         <v>37</v>
@@ -6803,437 +6934,452 @@
         <v>63</v>
       </c>
       <c r="W51" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="X51" t="s">
         <v>344</v>
       </c>
-      <c r="Y51">
-        <v>14</v>
-      </c>
       <c r="Z51" s="2">
         <v>1.4236111111111109</v>
       </c>
       <c r="AA51" s="2">
-        <v>45003.423611111109</v>
+        <v>44639.423611111109</v>
       </c>
       <c r="AB51" s="7">
-        <v>17.399999999999999</v>
+        <v>15.966666666666599</v>
       </c>
       <c r="AC51" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD51">
+        <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="C52">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>11652</v>
+        <v>6991</v>
       </c>
       <c r="F52">
-        <v>3805</v>
+        <v>1119</v>
       </c>
       <c r="G52">
-        <v>577</v>
+        <v>968</v>
       </c>
       <c r="H52">
-        <v>1339</v>
+        <v>1286</v>
       </c>
       <c r="I52">
-        <v>3438</v>
+        <v>1042</v>
       </c>
       <c r="J52">
-        <v>6050</v>
+        <v>3090</v>
       </c>
       <c r="K52" t="s">
-        <v>217</v>
-      </c>
-      <c r="L52" t="s">
-        <v>373</v>
+        <v>365</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="M52">
-        <v>40.32</v>
+        <v>45.773000000000003</v>
       </c>
       <c r="N52" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="P52" t="s">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="Q52" t="s">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="R52" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>369</v>
       </c>
       <c r="T52" s="4">
-        <v>42791</v>
+        <v>45003</v>
       </c>
       <c r="U52" t="s">
         <v>37</v>
       </c>
       <c r="V52">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="W52" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="X52" t="s">
-        <v>377</v>
+        <v>344</v>
+      </c>
+      <c r="Y52">
+        <v>14</v>
       </c>
       <c r="Z52" s="2">
-        <v>1.5173611111111109</v>
+        <v>1.4236111111111109</v>
       </c>
       <c r="AA52" s="2">
-        <v>42791.517361111109</v>
+        <v>45003.423611111109</v>
       </c>
       <c r="AB52" s="7">
-        <v>16.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AC52" t="s">
-        <v>638</v>
+        <v>634</v>
+      </c>
+      <c r="AD52">
+        <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
         <v>372</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E53">
-        <v>2867</v>
+        <v>11652</v>
       </c>
       <c r="F53">
-        <v>1188</v>
+        <v>3805</v>
       </c>
       <c r="G53">
-        <v>453</v>
+        <v>577</v>
       </c>
       <c r="H53">
-        <v>84</v>
+        <v>1339</v>
       </c>
       <c r="I53">
-        <v>955</v>
+        <v>3438</v>
       </c>
       <c r="J53">
-        <v>1858</v>
+        <v>6050</v>
       </c>
       <c r="K53" t="s">
-        <v>42</v>
-      </c>
-      <c r="L53" t="s">
-        <v>379</v>
+        <v>217</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="M53">
-        <v>40.56</v>
+        <v>40.32</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="O53" t="s">
         <v>162</v>
       </c>
       <c r="P53" t="s">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
+        <v>375</v>
       </c>
       <c r="R53" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="S53" t="s">
-        <v>382</v>
+        <v>58</v>
       </c>
       <c r="T53" s="4">
-        <v>43155</v>
+        <v>42791</v>
       </c>
       <c r="U53" t="s">
         <v>37</v>
       </c>
       <c r="V53">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="W53" t="s">
         <v>377</v>
       </c>
       <c r="X53" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Z53" s="2">
-        <v>1.489583333333333</v>
+        <v>1.5173611111111109</v>
       </c>
       <c r="AA53" s="2">
-        <v>43155.489583333343</v>
+        <v>42791.517361111109</v>
       </c>
       <c r="AB53" s="7">
-        <v>18.3333333333333</v>
+        <v>16.8</v>
       </c>
       <c r="AC53" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="AD53">
+        <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
         <v>372</v>
       </c>
       <c r="C54">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="E54">
-        <v>3789</v>
+        <v>2867</v>
       </c>
       <c r="F54">
-        <v>1449</v>
+        <v>1188</v>
       </c>
       <c r="G54">
-        <v>235</v>
+        <v>453</v>
       </c>
       <c r="H54">
-        <v>968</v>
+        <v>84</v>
       </c>
       <c r="I54">
-        <v>642</v>
+        <v>955</v>
       </c>
       <c r="J54">
-        <v>1997</v>
+        <v>1858</v>
       </c>
       <c r="K54" t="s">
-        <v>100</v>
-      </c>
-      <c r="L54" t="s">
-        <v>385</v>
+        <v>42</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="M54">
-        <v>40.915999999999997</v>
+        <v>40.56</v>
       </c>
       <c r="N54" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="P54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q54" t="s">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="R54" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="S54" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="T54" s="4">
-        <v>43526</v>
+        <v>43155</v>
       </c>
       <c r="U54" t="s">
         <v>37</v>
       </c>
       <c r="V54">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="W54" t="s">
         <v>377</v>
       </c>
       <c r="X54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z54" s="2">
         <v>1.489583333333333</v>
       </c>
       <c r="AA54" s="2">
-        <v>43526.489583333343</v>
+        <v>43155.489583333343</v>
       </c>
       <c r="AB54" s="7">
-        <v>18</v>
+        <v>18.3333333333333</v>
       </c>
       <c r="AC54" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="AD54">
+        <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s">
         <v>372</v>
       </c>
       <c r="C55">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="E55">
-        <v>4613</v>
+        <v>3789</v>
       </c>
       <c r="F55">
-        <v>1309</v>
+        <v>1449</v>
       </c>
       <c r="G55">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="H55">
-        <v>1600</v>
+        <v>968</v>
       </c>
       <c r="I55">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="J55">
-        <v>3266</v>
+        <v>1997</v>
       </c>
       <c r="K55" t="s">
-        <v>236</v>
-      </c>
-      <c r="L55" t="s">
-        <v>390</v>
+        <v>100</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="M55">
-        <v>39.549999999999997</v>
+        <v>40.915999999999997</v>
       </c>
       <c r="N55" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="O55" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="P55" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="Q55" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="R55" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="S55" t="s">
-        <v>36</v>
+        <v>387</v>
       </c>
       <c r="T55" s="4">
-        <v>43890</v>
+        <v>43526</v>
       </c>
       <c r="U55" t="s">
         <v>37</v>
       </c>
       <c r="V55">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W55" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="X55" t="s">
         <v>388</v>
       </c>
       <c r="Z55" s="2">
-        <v>1.4881944444444439</v>
+        <v>1.489583333333333</v>
       </c>
       <c r="AA55" s="2">
-        <v>43890.488194444442</v>
+        <v>43526.489583333343</v>
       </c>
       <c r="AB55" s="7">
-        <v>9.93333333333333</v>
+        <v>18</v>
       </c>
       <c r="AC55" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="AD55">
+        <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s">
         <v>372</v>
       </c>
       <c r="C56">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E56">
-        <v>1607</v>
+        <v>4613</v>
       </c>
       <c r="F56">
-        <v>215</v>
+        <v>1309</v>
       </c>
       <c r="G56">
+        <v>284</v>
+      </c>
+      <c r="H56">
+        <v>1600</v>
+      </c>
+      <c r="I56">
+        <v>697</v>
+      </c>
+      <c r="J56">
+        <v>3266</v>
+      </c>
+      <c r="K56" t="s">
+        <v>236</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M56">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="N56" t="s">
+        <v>151</v>
+      </c>
+      <c r="O56" t="s">
+        <v>246</v>
+      </c>
+      <c r="P56" t="s">
         <v>133</v>
       </c>
-      <c r="H56">
-        <v>720</v>
-      </c>
-      <c r="I56">
-        <v>222</v>
-      </c>
-      <c r="J56">
-        <v>1302</v>
-      </c>
-      <c r="K56" t="s">
-        <v>100</v>
-      </c>
-      <c r="L56" t="s">
-        <v>395</v>
-      </c>
-      <c r="M56">
-        <v>42.5</v>
-      </c>
-      <c r="N56" t="s">
-        <v>396</v>
-      </c>
-      <c r="O56" t="s">
-        <v>162</v>
-      </c>
-      <c r="P56" t="s">
-        <v>397</v>
-      </c>
       <c r="Q56" t="s">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="R56" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="S56" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="T56" s="4">
-        <v>44254</v>
+        <v>43890</v>
       </c>
       <c r="U56" t="s">
         <v>37</v>
       </c>
       <c r="V56">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W56" t="s">
         <v>393</v>
@@ -7242,84 +7388,87 @@
         <v>388</v>
       </c>
       <c r="Z56" s="2">
-        <v>1.4722222222222221</v>
+        <v>1.4881944444444439</v>
       </c>
       <c r="AA56" s="2">
-        <v>44254.472222222219</v>
+        <v>43890.488194444442</v>
       </c>
       <c r="AB56" s="7">
-        <v>10.7666666666666</v>
+        <v>9.93333333333333</v>
       </c>
       <c r="AC56" t="s">
-        <v>641</v>
+        <v>634</v>
+      </c>
+      <c r="AD56">
+        <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s">
         <v>372</v>
       </c>
       <c r="C57">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E57">
-        <v>7194</v>
+        <v>1607</v>
       </c>
       <c r="F57">
-        <v>1171</v>
+        <v>215</v>
       </c>
       <c r="G57">
-        <v>2944</v>
+        <v>133</v>
       </c>
       <c r="H57">
-        <v>1886</v>
+        <v>720</v>
       </c>
       <c r="I57">
-        <v>2044</v>
+        <v>222</v>
       </c>
       <c r="J57">
-        <v>4221</v>
+        <v>1302</v>
       </c>
       <c r="K57" t="s">
-        <v>185</v>
-      </c>
-      <c r="L57" t="s">
-        <v>400</v>
+        <v>100</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="M57">
-        <v>42.137</v>
+        <v>42.5</v>
       </c>
       <c r="N57" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="O57" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="Q57" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="R57" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S57" t="s">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="T57" s="4">
-        <v>44618</v>
+        <v>44254</v>
       </c>
       <c r="U57" t="s">
         <v>37</v>
       </c>
       <c r="V57">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W57" t="s">
         <v>393</v>
@@ -7328,84 +7477,87 @@
         <v>388</v>
       </c>
       <c r="Z57" s="2">
-        <v>1.46875</v>
+        <v>1.4722222222222221</v>
       </c>
       <c r="AA57" s="2">
-        <v>44618.46875</v>
+        <v>44254.472222222219</v>
       </c>
       <c r="AB57" s="7">
-        <v>12.8333333333333</v>
+        <v>10.7666666666666</v>
       </c>
       <c r="AC57" t="s">
-        <v>640</v>
+        <v>638</v>
+      </c>
+      <c r="AD57">
+        <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s">
         <v>372</v>
       </c>
       <c r="C58">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="E58">
-        <v>2652</v>
+        <v>7194</v>
       </c>
       <c r="F58">
-        <v>1429</v>
+        <v>1171</v>
       </c>
       <c r="G58">
-        <v>1298</v>
+        <v>2944</v>
       </c>
       <c r="H58">
-        <v>176</v>
+        <v>1886</v>
       </c>
       <c r="I58">
-        <v>514</v>
+        <v>2044</v>
       </c>
       <c r="J58">
-        <v>1470</v>
+        <v>4221</v>
       </c>
       <c r="K58" t="s">
         <v>185</v>
       </c>
-      <c r="L58" t="s">
-        <v>403</v>
+      <c r="L58" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="M58">
-        <v>42.189</v>
+        <v>42.137</v>
       </c>
       <c r="N58" t="s">
-        <v>404</v>
+        <v>108</v>
       </c>
       <c r="O58" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="Q58" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="R58" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="S58" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="T58" s="4">
-        <v>44982</v>
+        <v>44618</v>
       </c>
       <c r="U58" t="s">
         <v>37</v>
       </c>
       <c r="V58">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W58" t="s">
         <v>393</v>
@@ -7413,260 +7565,269 @@
       <c r="X58" t="s">
         <v>388</v>
       </c>
-      <c r="Y58">
-        <v>7</v>
-      </c>
       <c r="Z58" s="2">
         <v>1.46875</v>
       </c>
       <c r="AA58" s="2">
-        <v>44982.46875</v>
+        <v>44618.46875</v>
       </c>
       <c r="AB58" s="7">
-        <v>13.4333333333333</v>
+        <v>12.8333333333333</v>
       </c>
       <c r="AC58" t="s">
         <v>637</v>
       </c>
+      <c r="AD58">
+        <v>204</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59">
+        <v>2652</v>
+      </c>
+      <c r="F59">
+        <v>1429</v>
+      </c>
+      <c r="G59">
+        <v>1298</v>
+      </c>
+      <c r="H59">
+        <v>176</v>
+      </c>
+      <c r="I59">
+        <v>514</v>
+      </c>
+      <c r="J59">
+        <v>1470</v>
+      </c>
+      <c r="K59" t="s">
+        <v>185</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59">
+        <v>42.189</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>176</v>
+      </c>
+      <c r="P59" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>63</v>
+      </c>
+      <c r="R59" t="s">
+        <v>405</v>
+      </c>
+      <c r="S59" t="s">
+        <v>406</v>
+      </c>
+      <c r="T59" s="4">
+        <v>44982</v>
+      </c>
+      <c r="U59" t="s">
+        <v>37</v>
+      </c>
+      <c r="V59">
+        <v>52</v>
+      </c>
+      <c r="W59" t="s">
+        <v>393</v>
+      </c>
+      <c r="X59" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y59">
+        <v>7</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>1.46875</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>44982.46875</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>13.4333333333333</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD59">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>407</v>
-      </c>
-      <c r="B59" t="s">
-        <v>408</v>
-      </c>
-      <c r="C59">
-        <v>2017</v>
-      </c>
-      <c r="D59" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59">
-        <v>11652</v>
-      </c>
-      <c r="F59">
-        <v>3805</v>
-      </c>
-      <c r="G59">
-        <v>577</v>
-      </c>
-      <c r="H59">
-        <v>1339</v>
-      </c>
-      <c r="I59">
-        <v>3438</v>
-      </c>
-      <c r="J59">
-        <v>6050</v>
-      </c>
-      <c r="K59" t="s">
-        <v>217</v>
-      </c>
-      <c r="L59" t="s">
-        <v>409</v>
-      </c>
-      <c r="M59">
-        <v>45.2</v>
-      </c>
-      <c r="N59" t="s">
-        <v>192</v>
-      </c>
-      <c r="O59" t="s">
-        <v>410</v>
-      </c>
-      <c r="P59" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>411</v>
-      </c>
-      <c r="R59" t="s">
-        <v>412</v>
-      </c>
-      <c r="S59" t="s">
-        <v>58</v>
-      </c>
-      <c r="T59" s="4">
-        <v>42834</v>
-      </c>
-      <c r="U59" t="s">
-        <v>90</v>
-      </c>
-      <c r="V59">
-        <v>5</v>
-      </c>
-      <c r="W59" t="s">
-        <v>413</v>
-      </c>
-      <c r="X59" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>1.479166666666667</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>42834.479166666657</v>
-      </c>
-      <c r="AB59" s="7">
-        <v>10.1666666666666</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>415</v>
       </c>
       <c r="B60" t="s">
         <v>408</v>
       </c>
       <c r="C60">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E60">
-        <v>9426</v>
+        <v>11652</v>
       </c>
       <c r="F60">
-        <v>1797</v>
+        <v>3805</v>
       </c>
       <c r="G60">
-        <v>1335</v>
+        <v>577</v>
       </c>
       <c r="H60">
-        <v>5996</v>
+        <v>1339</v>
       </c>
       <c r="I60">
-        <v>2578</v>
+        <v>3438</v>
       </c>
       <c r="J60">
-        <v>8566</v>
+        <v>6050</v>
       </c>
       <c r="K60" t="s">
-        <v>88</v>
-      </c>
-      <c r="L60" t="s">
-        <v>416</v>
+        <v>217</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="M60">
-        <v>43.55</v>
+        <v>45.2</v>
       </c>
       <c r="N60" t="s">
-        <v>417</v>
+        <v>192</v>
       </c>
       <c r="O60" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="Q60" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
       <c r="R60" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="S60" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="T60" s="4">
-        <v>43198</v>
+        <v>42834</v>
       </c>
       <c r="U60" t="s">
         <v>90</v>
       </c>
       <c r="V60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W60" t="s">
         <v>413</v>
       </c>
       <c r="X60" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Z60" s="2">
-        <v>1.4722222222222221</v>
+        <v>1.479166666666667</v>
       </c>
       <c r="AA60" s="2">
-        <v>43198.472222222219</v>
+        <v>42834.479166666657</v>
       </c>
       <c r="AB60" s="7">
-        <v>11.033333333333299</v>
+        <v>10.1666666666666</v>
       </c>
       <c r="AC60" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="AD60">
+        <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s">
         <v>408</v>
       </c>
       <c r="C61">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E61">
-        <v>12530</v>
+        <v>9426</v>
       </c>
       <c r="F61">
-        <v>4215</v>
+        <v>1797</v>
       </c>
       <c r="G61">
-        <v>1426</v>
+        <v>1335</v>
       </c>
       <c r="H61">
-        <v>1094</v>
+        <v>5996</v>
       </c>
       <c r="I61">
-        <v>3215</v>
+        <v>2578</v>
       </c>
       <c r="J61">
-        <v>5140</v>
+        <v>8566</v>
       </c>
       <c r="K61" t="s">
-        <v>100</v>
-      </c>
-      <c r="L61" t="s">
-        <v>421</v>
+        <v>88</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="M61">
-        <v>43.069000000000003</v>
+        <v>43.55</v>
       </c>
       <c r="N61" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="O61" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="Q61" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="R61" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S61" t="s">
         <v>36</v>
       </c>
       <c r="T61" s="4">
-        <v>43569</v>
+        <v>43198</v>
       </c>
       <c r="U61" t="s">
         <v>90</v>
       </c>
       <c r="V61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W61" t="s">
         <v>413</v>
@@ -7675,78 +7836,81 @@
         <v>419</v>
       </c>
       <c r="Z61" s="2">
-        <v>1.552083333333333</v>
+        <v>1.4722222222222221</v>
       </c>
       <c r="AA61" s="2">
-        <v>43569.552083333343</v>
+        <v>43198.472222222219</v>
       </c>
       <c r="AB61" s="7">
-        <v>13.2</v>
+        <v>11.033333333333299</v>
       </c>
       <c r="AC61" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="AD61">
+        <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s">
         <v>408</v>
       </c>
       <c r="C62">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>5472</v>
+        <v>12530</v>
       </c>
       <c r="F62">
-        <v>1172</v>
+        <v>4215</v>
       </c>
       <c r="G62">
-        <v>142</v>
+        <v>1426</v>
       </c>
       <c r="H62">
-        <v>1050</v>
+        <v>1094</v>
       </c>
       <c r="I62">
-        <v>1006</v>
+        <v>3215</v>
       </c>
       <c r="J62">
-        <v>3117</v>
+        <v>5140</v>
       </c>
       <c r="K62" t="s">
-        <v>286</v>
-      </c>
-      <c r="L62" t="s">
-        <v>424</v>
+        <v>100</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="M62">
-        <v>42.719000000000001</v>
+        <v>43.069000000000003</v>
       </c>
       <c r="N62" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="O62" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="P62" t="s">
-        <v>411</v>
+        <v>162</v>
       </c>
       <c r="Q62" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="R62" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="T62" s="4">
-        <v>44472</v>
+        <v>43569</v>
       </c>
       <c r="U62" t="s">
         <v>90</v>
@@ -7760,82 +7924,82 @@
       <c r="X62" t="s">
         <v>419</v>
       </c>
-      <c r="Y62">
-        <v>13</v>
-      </c>
       <c r="Z62" s="2">
-        <v>1.46875</v>
+        <v>1.552083333333333</v>
       </c>
       <c r="AA62" s="2">
-        <v>44472.46875</v>
+        <v>43569.552083333343</v>
       </c>
       <c r="AB62" s="7">
-        <v>6.93333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="AC62" t="s">
-        <v>642</v>
+        <v>634</v>
+      </c>
+      <c r="AD62">
+        <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s">
         <v>408</v>
       </c>
       <c r="C63">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="E63">
-        <v>2652</v>
+        <v>5472</v>
       </c>
       <c r="F63">
-        <v>1429</v>
+        <v>1172</v>
       </c>
       <c r="G63">
-        <v>1298</v>
+        <v>142</v>
       </c>
       <c r="H63">
-        <v>176</v>
+        <v>1050</v>
       </c>
       <c r="I63">
-        <v>514</v>
+        <v>1006</v>
       </c>
       <c r="J63">
-        <v>1470</v>
+        <v>3117</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
-      </c>
-      <c r="L63" t="s">
-        <v>427</v>
+        <v>286</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="M63">
-        <v>45.792000000000002</v>
+        <v>42.719000000000001</v>
       </c>
       <c r="N63" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O63" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="P63" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="Q63" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="R63" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="S63" t="s">
-        <v>430</v>
+        <v>58</v>
       </c>
       <c r="T63" s="4">
-        <v>44668</v>
+        <v>44472</v>
       </c>
       <c r="U63" t="s">
         <v>90</v>
@@ -7850,262 +8014,274 @@
         <v>419</v>
       </c>
       <c r="Y63">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z63" s="2">
         <v>1.46875</v>
       </c>
       <c r="AA63" s="2">
-        <v>44668.46875</v>
+        <v>44472.46875</v>
       </c>
       <c r="AB63" s="7">
         <v>6.93333333333333</v>
       </c>
       <c r="AC63" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="AD63">
+        <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s">
         <v>408</v>
       </c>
       <c r="C64">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="E64">
-        <v>6991</v>
+        <v>2652</v>
       </c>
       <c r="F64">
-        <v>1119</v>
+        <v>1429</v>
       </c>
       <c r="G64">
-        <v>968</v>
+        <v>1298</v>
       </c>
       <c r="H64">
-        <v>1286</v>
+        <v>176</v>
       </c>
       <c r="I64">
-        <v>1042</v>
+        <v>514</v>
       </c>
       <c r="J64">
-        <v>3090</v>
+        <v>1470</v>
       </c>
       <c r="K64" t="s">
-        <v>365</v>
-      </c>
-      <c r="L64" t="s">
-        <v>432</v>
+        <v>68</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="M64">
-        <v>46.841000000000001</v>
+        <v>45.792000000000002</v>
       </c>
       <c r="N64" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>428</v>
       </c>
       <c r="Q64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R64" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="S64" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="T64" s="4">
-        <v>45025</v>
+        <v>44668</v>
       </c>
       <c r="U64" t="s">
         <v>90</v>
       </c>
       <c r="V64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W64" t="s">
         <v>413</v>
       </c>
       <c r="X64" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y64">
+        <v>17</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1.46875</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>44668.46875</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>6.93333333333333</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD64">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65">
+        <v>2023</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>6991</v>
+      </c>
+      <c r="F65">
+        <v>1119</v>
+      </c>
+      <c r="G65">
+        <v>968</v>
+      </c>
+      <c r="H65">
+        <v>1286</v>
+      </c>
+      <c r="I65">
+        <v>1042</v>
+      </c>
+      <c r="J65">
+        <v>3090</v>
+      </c>
+      <c r="K65" t="s">
+        <v>365</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="M65">
+        <v>46.841000000000001</v>
+      </c>
+      <c r="N65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>206</v>
+      </c>
+      <c r="R65" t="s">
+        <v>433</v>
+      </c>
+      <c r="S65" t="s">
+        <v>434</v>
+      </c>
+      <c r="T65" s="4">
+        <v>45025</v>
+      </c>
+      <c r="U65" t="s">
+        <v>90</v>
+      </c>
+      <c r="V65">
+        <v>4</v>
+      </c>
+      <c r="W65" t="s">
+        <v>413</v>
+      </c>
+      <c r="X65" t="s">
         <v>414</v>
       </c>
-      <c r="Y64">
+      <c r="Y65">
         <v>16</v>
       </c>
-      <c r="Z64" s="2">
+      <c r="Z65" s="2">
         <v>1.475694444444444</v>
       </c>
-      <c r="AA64" s="2">
+      <c r="AA65" s="2">
         <v>45025.475694444453</v>
       </c>
-      <c r="AB64" s="7">
+      <c r="AB65" s="7">
         <v>5.5</v>
       </c>
-      <c r="AC64" t="s">
-        <v>643</v>
+      <c r="AC65" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD65">
+        <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>435</v>
-      </c>
-      <c r="B65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65">
-        <v>2017</v>
-      </c>
-      <c r="D65" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65">
-        <v>11652</v>
-      </c>
-      <c r="F65">
-        <v>3805</v>
-      </c>
-      <c r="G65">
-        <v>577</v>
-      </c>
-      <c r="H65">
-        <v>1339</v>
-      </c>
-      <c r="I65">
-        <v>3438</v>
-      </c>
-      <c r="J65">
-        <v>6050</v>
-      </c>
-      <c r="K65" t="s">
-        <v>217</v>
-      </c>
-      <c r="L65" t="s">
-        <v>436</v>
-      </c>
-      <c r="M65">
-        <v>42.9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>28</v>
-      </c>
-      <c r="O65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P65" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>171</v>
-      </c>
-      <c r="R65" t="s">
-        <v>437</v>
-      </c>
-      <c r="S65" t="s">
-        <v>58</v>
-      </c>
-      <c r="T65" s="4">
-        <v>42818</v>
-      </c>
-      <c r="U65" t="s">
-        <v>37</v>
-      </c>
-      <c r="V65">
-        <v>51</v>
-      </c>
-      <c r="W65" t="s">
-        <v>197</v>
-      </c>
-      <c r="X65" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>1.538194444444444</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>42818.538194444453</v>
-      </c>
-      <c r="AB65" s="7">
-        <v>4.8333333333333304</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>438</v>
       </c>
       <c r="B66" t="s">
         <v>211</v>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E66">
-        <v>4666</v>
+        <v>11652</v>
       </c>
       <c r="F66">
-        <v>2405</v>
+        <v>3805</v>
       </c>
       <c r="G66">
-        <v>1739</v>
+        <v>577</v>
       </c>
       <c r="H66">
-        <v>792</v>
+        <v>1339</v>
       </c>
       <c r="I66">
-        <v>193</v>
+        <v>3438</v>
       </c>
       <c r="J66">
-        <v>1126</v>
+        <v>6050</v>
       </c>
       <c r="K66" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" t="s">
-        <v>439</v>
+        <v>217</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="M66">
-        <v>40.81</v>
+        <v>42.9</v>
       </c>
       <c r="N66" t="s">
         <v>28</v>
       </c>
       <c r="O66" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="Q66" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="R66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="S66" t="s">
-        <v>441</v>
+        <v>58</v>
       </c>
       <c r="T66" s="4">
-        <v>43182</v>
+        <v>42818</v>
       </c>
       <c r="U66" t="s">
         <v>37</v>
       </c>
       <c r="V66">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W66" t="s">
         <v>197</v>
@@ -8114,170 +8290,176 @@
         <v>197</v>
       </c>
       <c r="Z66" s="2">
-        <v>1.5145833333333329</v>
+        <v>1.538194444444444</v>
       </c>
       <c r="AA66" s="2">
-        <v>43182.51458333333</v>
+        <v>42818.538194444453</v>
       </c>
       <c r="AB66" s="7">
-        <v>4.3999999999999897</v>
+        <v>4.8333333333333304</v>
       </c>
       <c r="AC66" t="s">
-        <v>644</v>
+        <v>639</v>
+      </c>
+      <c r="AD66">
+        <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s">
-        <v>634</v>
+        <v>211</v>
       </c>
       <c r="C67">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="E67">
-        <v>12530</v>
+        <v>4666</v>
       </c>
       <c r="F67">
-        <v>4215</v>
+        <v>2405</v>
       </c>
       <c r="G67">
-        <v>1426</v>
+        <v>1739</v>
       </c>
       <c r="H67">
-        <v>1094</v>
+        <v>792</v>
       </c>
       <c r="I67">
-        <v>3215</v>
+        <v>193</v>
       </c>
       <c r="J67">
-        <v>5140</v>
+        <v>1126</v>
       </c>
       <c r="K67" t="s">
         <v>29</v>
       </c>
-      <c r="L67" t="s">
-        <v>443</v>
+      <c r="L67" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="M67">
-        <v>40.65</v>
+        <v>40.81</v>
       </c>
       <c r="N67" t="s">
+        <v>28</v>
+      </c>
+      <c r="O67" t="s">
         <v>194</v>
       </c>
-      <c r="O67" t="s">
-        <v>220</v>
-      </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="Q67" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="R67" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="S67" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="T67" s="4">
-        <v>42827</v>
+        <v>43182</v>
       </c>
       <c r="U67" t="s">
         <v>37</v>
       </c>
       <c r="V67">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="W67" t="s">
-        <v>446</v>
+        <v>197</v>
       </c>
       <c r="X67" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="Z67" s="2">
-        <v>1.489583333333333</v>
+        <v>1.5145833333333329</v>
       </c>
       <c r="AA67" s="2">
-        <v>42827.489583333343</v>
+        <v>43182.51458333333</v>
       </c>
       <c r="AB67" s="7">
-        <v>5.7666666666666604</v>
+        <v>4.3999999999999897</v>
       </c>
       <c r="AC67" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="AD67">
+        <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C68">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D68" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>4666</v>
+        <v>12530</v>
       </c>
       <c r="F68">
-        <v>2405</v>
+        <v>4215</v>
       </c>
       <c r="G68">
-        <v>1739</v>
+        <v>1426</v>
       </c>
       <c r="H68">
-        <v>792</v>
+        <v>1094</v>
       </c>
       <c r="I68">
-        <v>193</v>
+        <v>3215</v>
       </c>
       <c r="J68">
-        <v>1126</v>
+        <v>5140</v>
       </c>
       <c r="K68" t="s">
         <v>29</v>
       </c>
-      <c r="L68" t="s">
-        <v>449</v>
+      <c r="L68" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="M68">
-        <v>41.64</v>
+        <v>40.65</v>
       </c>
       <c r="N68" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="O68" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="P68" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="Q68" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="R68" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="S68" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="T68" s="4">
-        <v>43191</v>
+        <v>42827</v>
       </c>
       <c r="U68" t="s">
         <v>37</v>
       </c>
       <c r="V68">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="W68" t="s">
         <v>446</v>
@@ -8286,342 +8468,354 @@
         <v>447</v>
       </c>
       <c r="Z68" s="2">
-        <v>1.447916666666667</v>
+        <v>1.489583333333333</v>
       </c>
       <c r="AA68" s="2">
-        <v>43191.447916666657</v>
+        <v>42827.489583333343</v>
       </c>
       <c r="AB68" s="7">
-        <v>6.1333333333333302</v>
+        <v>5.7666666666666604</v>
       </c>
       <c r="AC68" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="AD68">
+        <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C69">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E69">
-        <v>2442</v>
+        <v>4666</v>
       </c>
       <c r="F69">
-        <v>951</v>
+        <v>2405</v>
       </c>
       <c r="G69">
-        <v>1000</v>
+        <v>1739</v>
       </c>
       <c r="H69">
-        <v>140</v>
+        <v>792</v>
       </c>
       <c r="I69">
-        <v>958</v>
+        <v>193</v>
       </c>
       <c r="J69">
-        <v>2080</v>
+        <v>1126</v>
       </c>
       <c r="K69" t="s">
-        <v>335</v>
-      </c>
-      <c r="L69" t="s">
-        <v>453</v>
+        <v>29</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="M69">
-        <v>42.29</v>
+        <v>41.64</v>
       </c>
       <c r="N69" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="O69" t="s">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="P69" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q69" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="R69" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="S69" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="T69" s="4">
-        <v>43562</v>
+        <v>43191</v>
       </c>
       <c r="U69" t="s">
         <v>37</v>
       </c>
       <c r="V69">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W69" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="X69" t="s">
         <v>447</v>
       </c>
       <c r="Z69" s="2">
-        <v>1.53125</v>
+        <v>1.447916666666667</v>
       </c>
       <c r="AA69" s="2">
-        <v>43562.53125</v>
+        <v>43191.447916666657</v>
       </c>
       <c r="AB69" s="7">
-        <v>16.8333333333333</v>
+        <v>6.1333333333333302</v>
       </c>
       <c r="AC69" t="s">
-        <v>637</v>
+        <v>641</v>
+      </c>
+      <c r="AD69">
+        <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C70">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="E70">
-        <v>6991</v>
+        <v>2442</v>
       </c>
       <c r="F70">
-        <v>1119</v>
+        <v>951</v>
       </c>
       <c r="G70">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="H70">
-        <v>1286</v>
+        <v>140</v>
       </c>
       <c r="I70">
-        <v>1042</v>
+        <v>958</v>
       </c>
       <c r="J70">
-        <v>3090</v>
+        <v>2080</v>
       </c>
       <c r="K70" t="s">
-        <v>96</v>
-      </c>
-      <c r="L70" t="s">
-        <v>458</v>
+        <v>335</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="M70">
-        <v>42.52</v>
+        <v>42.29</v>
       </c>
       <c r="N70" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="O70" t="s">
         <v>231</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="Q70" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="R70" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="S70" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="T70" s="4">
-        <v>44122</v>
+        <v>43562</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="V70">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W70" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="X70" t="s">
         <v>447</v>
       </c>
       <c r="Z70" s="2">
-        <v>1.4604166666666669</v>
+        <v>1.53125</v>
       </c>
       <c r="AA70" s="2">
-        <v>44122.460416666669</v>
+        <v>43562.53125</v>
       </c>
       <c r="AB70" s="7">
-        <v>17.033333333333299</v>
+        <v>16.8333333333333</v>
       </c>
       <c r="AC70" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD70">
+        <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C71">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>1600</v>
+        <v>6991</v>
       </c>
       <c r="F71">
-        <v>796</v>
+        <v>1119</v>
       </c>
       <c r="G71">
-        <v>2362</v>
+        <v>968</v>
       </c>
       <c r="H71">
-        <v>357</v>
+        <v>1286</v>
       </c>
       <c r="I71">
-        <v>498</v>
+        <v>1042</v>
       </c>
       <c r="J71">
-        <v>1426</v>
+        <v>3090</v>
       </c>
       <c r="K71" t="s">
-        <v>100</v>
-      </c>
-      <c r="L71" t="s">
-        <v>460</v>
+        <v>96</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="M71">
-        <v>42.13</v>
+        <v>42.52</v>
       </c>
       <c r="N71" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O71" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="P71" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="Q71" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="R71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S71" t="s">
         <v>36</v>
       </c>
       <c r="T71" s="4">
-        <v>44290</v>
+        <v>44122</v>
       </c>
       <c r="U71" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="V71">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W71" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="X71" t="s">
         <v>447</v>
       </c>
       <c r="Z71" s="2">
-        <v>1.4291666666666669</v>
+        <v>1.4604166666666669</v>
       </c>
       <c r="AA71" s="2">
-        <v>44290.429166666669</v>
+        <v>44122.460416666669</v>
       </c>
       <c r="AB71" s="7">
-        <v>17.1666666666666</v>
+        <v>17.033333333333299</v>
       </c>
       <c r="AC71" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD71">
+        <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C72">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72">
+        <v>1600</v>
+      </c>
+      <c r="F72">
+        <v>796</v>
+      </c>
+      <c r="G72">
+        <v>2362</v>
+      </c>
+      <c r="H72">
+        <v>357</v>
+      </c>
+      <c r="I72">
+        <v>498</v>
+      </c>
+      <c r="J72">
+        <v>1426</v>
+      </c>
+      <c r="K72" t="s">
+        <v>100</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72">
+        <v>42.13</v>
+      </c>
+      <c r="N72" t="s">
         <v>50</v>
       </c>
-      <c r="E72">
-        <v>6991</v>
-      </c>
-      <c r="F72">
-        <v>1119</v>
-      </c>
-      <c r="G72">
-        <v>968</v>
-      </c>
-      <c r="H72">
-        <v>1286</v>
-      </c>
-      <c r="I72">
-        <v>1042</v>
-      </c>
-      <c r="J72">
-        <v>3090</v>
-      </c>
-      <c r="K72" t="s">
-        <v>96</v>
-      </c>
-      <c r="L72" t="s">
-        <v>463</v>
-      </c>
-      <c r="M72">
-        <v>43.197000000000003</v>
-      </c>
-      <c r="N72" t="s">
-        <v>174</v>
-      </c>
       <c r="O72" t="s">
-        <v>331</v>
+        <v>194</v>
       </c>
       <c r="P72" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="Q72" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="R72" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="T72" s="4">
-        <v>44654</v>
+        <v>44290</v>
       </c>
       <c r="U72" t="s">
         <v>37</v>
       </c>
       <c r="V72">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W72" t="s">
         <v>456</v>
@@ -8633,250 +8827,259 @@
         <v>1.4291666666666669</v>
       </c>
       <c r="AA72" s="2">
-        <v>44654.429166666669</v>
+        <v>44290.429166666669</v>
       </c>
       <c r="AB72" s="7">
         <v>17.1666666666666</v>
       </c>
       <c r="AC72" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD72">
+        <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C73">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>6991</v>
+      </c>
+      <c r="F73">
+        <v>1119</v>
+      </c>
+      <c r="G73">
+        <v>968</v>
+      </c>
+      <c r="H73">
+        <v>1286</v>
+      </c>
+      <c r="I73">
+        <v>1042</v>
+      </c>
+      <c r="J73">
+        <v>3090</v>
+      </c>
+      <c r="K73" t="s">
+        <v>96</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="M73">
+        <v>43.197000000000003</v>
+      </c>
+      <c r="N73" t="s">
+        <v>174</v>
+      </c>
+      <c r="O73" t="s">
+        <v>331</v>
+      </c>
+      <c r="P73" t="s">
         <v>75</v>
       </c>
-      <c r="E73">
-        <v>6177</v>
-      </c>
-      <c r="F73">
-        <v>6344</v>
-      </c>
-      <c r="G73">
-        <v>2623</v>
-      </c>
-      <c r="H73">
-        <v>227</v>
-      </c>
-      <c r="I73">
-        <v>7973</v>
-      </c>
-      <c r="J73">
-        <v>3330</v>
-      </c>
-      <c r="K73" t="s">
-        <v>76</v>
-      </c>
-      <c r="L73" t="s">
-        <v>465</v>
-      </c>
-      <c r="M73">
-        <v>44.082999999999998</v>
-      </c>
-      <c r="N73" t="s">
-        <v>50</v>
-      </c>
-      <c r="O73" t="s">
-        <v>164</v>
-      </c>
-      <c r="P73" t="s">
-        <v>60</v>
-      </c>
       <c r="Q73" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="R73" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S73" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="T73" s="4">
-        <v>45018</v>
+        <v>44654</v>
       </c>
       <c r="U73" t="s">
         <v>37</v>
       </c>
       <c r="V73">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W73" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="X73" t="s">
         <v>447</v>
       </c>
-      <c r="Y73">
+      <c r="Z73" s="2">
+        <v>1.4291666666666669</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>44654.429166666669</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>17.1666666666666</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD73">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74">
+        <v>2023</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74">
+        <v>6177</v>
+      </c>
+      <c r="F74">
+        <v>6344</v>
+      </c>
+      <c r="G74">
+        <v>2623</v>
+      </c>
+      <c r="H74">
+        <v>227</v>
+      </c>
+      <c r="I74">
+        <v>7973</v>
+      </c>
+      <c r="J74">
+        <v>3330</v>
+      </c>
+      <c r="K74" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="M74">
+        <v>44.082999999999998</v>
+      </c>
+      <c r="N74" t="s">
+        <v>50</v>
+      </c>
+      <c r="O74" t="s">
+        <v>164</v>
+      </c>
+      <c r="P74" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>188</v>
+      </c>
+      <c r="R74" t="s">
+        <v>466</v>
+      </c>
+      <c r="S74" t="s">
+        <v>455</v>
+      </c>
+      <c r="T74" s="4">
+        <v>45018</v>
+      </c>
+      <c r="U74" t="s">
+        <v>37</v>
+      </c>
+      <c r="V74">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s">
+        <v>467</v>
+      </c>
+      <c r="X74" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y74">
         <v>6</v>
       </c>
-      <c r="Z73" s="2">
+      <c r="Z74" s="2">
         <v>1.427777777777778</v>
       </c>
-      <c r="AA73" s="2">
+      <c r="AA74" s="2">
         <v>45018.427777777782</v>
       </c>
-      <c r="AB73" s="7">
+      <c r="AB74" s="7">
         <v>18.8333333333333</v>
       </c>
-      <c r="AC73" t="s">
-        <v>638</v>
+      <c r="AC74" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD74">
+        <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>468</v>
-      </c>
-      <c r="B74" t="s">
-        <v>469</v>
-      </c>
-      <c r="C74">
-        <v>2017</v>
-      </c>
-      <c r="D74" t="s">
-        <v>470</v>
-      </c>
-      <c r="E74">
-        <v>1908</v>
-      </c>
-      <c r="F74">
-        <v>820</v>
-      </c>
-      <c r="G74">
-        <v>833</v>
-      </c>
-      <c r="H74">
-        <v>2994</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>231</v>
-      </c>
-      <c r="K74" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" t="s">
-        <v>471</v>
-      </c>
-      <c r="M74">
-        <v>44.01</v>
-      </c>
-      <c r="N74" t="s">
-        <v>227</v>
-      </c>
-      <c r="O74" t="s">
-        <v>97</v>
-      </c>
-      <c r="P74" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>87</v>
-      </c>
-      <c r="R74" t="s">
-        <v>472</v>
-      </c>
-      <c r="S74" t="s">
-        <v>85</v>
-      </c>
-      <c r="T74" s="4">
-        <v>42830</v>
-      </c>
-      <c r="U74" t="s">
-        <v>90</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74" t="s">
-        <v>473</v>
-      </c>
-      <c r="X74" t="s">
-        <v>474</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>1.564583333333333</v>
-      </c>
-      <c r="AA74" s="2">
-        <v>42830.564583333333</v>
-      </c>
-      <c r="AB74" s="7">
-        <v>18.133333333333301</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>475</v>
       </c>
       <c r="B75" t="s">
         <v>469</v>
       </c>
       <c r="C75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E75">
-        <v>1883</v>
+        <v>1908</v>
       </c>
       <c r="F75">
-        <v>143</v>
+        <v>820</v>
       </c>
       <c r="G75">
-        <v>38</v>
+        <v>833</v>
       </c>
       <c r="H75">
-        <v>3632</v>
+        <v>2994</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>654</v>
+        <v>231</v>
       </c>
       <c r="K75" t="s">
         <v>29</v>
       </c>
-      <c r="L75" t="s">
-        <v>477</v>
+      <c r="L75" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="M75">
-        <v>45.57</v>
+        <v>44.01</v>
       </c>
       <c r="N75" t="s">
+        <v>227</v>
+      </c>
+      <c r="O75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q75" t="s">
         <v>87</v>
       </c>
-      <c r="O75" t="s">
-        <v>478</v>
-      </c>
-      <c r="P75" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>479</v>
-      </c>
       <c r="R75" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="S75" t="s">
         <v>85</v>
       </c>
       <c r="T75" s="4">
-        <v>43194</v>
+        <v>42830</v>
       </c>
       <c r="U75" t="s">
         <v>90</v>
@@ -8885,33 +9088,36 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="X75" t="s">
         <v>474</v>
       </c>
       <c r="Z75" s="2">
-        <v>1.526388888888889</v>
+        <v>1.564583333333333</v>
       </c>
       <c r="AA75" s="2">
-        <v>43194.526388888888</v>
+        <v>42830.564583333333</v>
       </c>
       <c r="AB75" s="7">
-        <v>18.266666666666602</v>
+        <v>18.133333333333301</v>
       </c>
       <c r="AC75" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="AD75">
+        <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s">
         <v>469</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="s">
         <v>476</v>
@@ -8935,34 +9141,34 @@
         <v>654</v>
       </c>
       <c r="K76" t="s">
-        <v>100</v>
-      </c>
-      <c r="L76" t="s">
-        <v>483</v>
+        <v>29</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="M76">
-        <v>45.503</v>
+        <v>45.57</v>
       </c>
       <c r="N76" t="s">
-        <v>484</v>
+        <v>87</v>
       </c>
       <c r="O76" t="s">
         <v>478</v>
       </c>
       <c r="P76" t="s">
-        <v>485</v>
+        <v>228</v>
       </c>
       <c r="Q76" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="R76" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="S76" t="s">
         <v>85</v>
       </c>
       <c r="T76" s="4">
-        <v>43565</v>
+        <v>43194</v>
       </c>
       <c r="U76" t="s">
         <v>90</v>
@@ -8971,256 +9177,265 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="X76" t="s">
         <v>474</v>
       </c>
       <c r="Z76" s="2">
-        <v>1.6131944444444439</v>
+        <v>1.526388888888889</v>
       </c>
       <c r="AA76" s="2">
-        <v>43565.613194444442</v>
+        <v>43194.526388888888</v>
       </c>
       <c r="AB76" s="7">
-        <v>12.8</v>
+        <v>18.266666666666602</v>
       </c>
       <c r="AC76" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD76">
+        <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s">
         <v>469</v>
       </c>
       <c r="C77">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>476</v>
       </c>
       <c r="E77">
-        <v>2567</v>
+        <v>1883</v>
       </c>
       <c r="F77">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="G77">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>4365</v>
+        <v>3632</v>
       </c>
       <c r="I77">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="J77">
-        <v>2104</v>
+        <v>654</v>
       </c>
       <c r="K77" t="s">
-        <v>92</v>
-      </c>
-      <c r="L77" t="s">
-        <v>490</v>
+        <v>100</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="M77">
-        <v>48.45</v>
+        <v>45.503</v>
       </c>
       <c r="N77" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="O77" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="P77" t="s">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="Q77" t="s">
-        <v>93</v>
+        <v>486</v>
       </c>
       <c r="R77" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="S77" t="s">
         <v>85</v>
       </c>
       <c r="T77" s="4">
-        <v>44118</v>
+        <v>43565</v>
       </c>
       <c r="U77" t="s">
         <v>90</v>
       </c>
       <c r="V77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="X77" t="s">
         <v>474</v>
       </c>
       <c r="Z77" s="2">
-        <v>1.604166666666667</v>
+        <v>1.6131944444444439</v>
       </c>
       <c r="AA77" s="2">
-        <v>44118.604166666657</v>
+        <v>43565.613194444442</v>
       </c>
       <c r="AB77" s="7">
-        <v>13.066666666666601</v>
+        <v>12.8</v>
       </c>
       <c r="AC77" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD77">
+        <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s">
         <v>469</v>
       </c>
       <c r="C78">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78">
+        <v>2567</v>
+      </c>
+      <c r="F78">
+        <v>333</v>
+      </c>
+      <c r="G78">
+        <v>148</v>
+      </c>
+      <c r="H78">
+        <v>4365</v>
+      </c>
+      <c r="I78">
+        <v>186</v>
+      </c>
+      <c r="J78">
+        <v>2104</v>
+      </c>
+      <c r="K78" t="s">
+        <v>92</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="M78">
+        <v>48.45</v>
+      </c>
+      <c r="N78" t="s">
+        <v>491</v>
+      </c>
+      <c r="O78" t="s">
+        <v>492</v>
+      </c>
+      <c r="P78" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q78" t="s">
         <v>93</v>
       </c>
-      <c r="E78">
-        <v>4627</v>
-      </c>
-      <c r="F78">
-        <v>569</v>
-      </c>
-      <c r="G78">
-        <v>154</v>
-      </c>
-      <c r="H78">
-        <v>5552</v>
-      </c>
-      <c r="I78">
-        <v>185</v>
-      </c>
-      <c r="J78">
-        <v>2278</v>
-      </c>
-      <c r="K78" t="s">
-        <v>96</v>
-      </c>
-      <c r="L78" t="s">
-        <v>495</v>
-      </c>
-      <c r="M78">
-        <v>47.753999999999998</v>
-      </c>
-      <c r="N78" t="s">
-        <v>496</v>
-      </c>
-      <c r="O78" t="s">
-        <v>336</v>
-      </c>
-      <c r="P78" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>497</v>
-      </c>
       <c r="R78" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="S78" t="s">
         <v>85</v>
       </c>
       <c r="T78" s="4">
-        <v>44293</v>
+        <v>44118</v>
       </c>
       <c r="U78" t="s">
         <v>90</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W78" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="X78" t="s">
         <v>474</v>
       </c>
       <c r="Z78" s="2">
-        <v>1.5326388888888891</v>
+        <v>1.604166666666667</v>
       </c>
       <c r="AA78" s="2">
-        <v>44293.532638888893</v>
+        <v>44118.604166666657</v>
       </c>
       <c r="AB78" s="7">
-        <v>12.8</v>
+        <v>13.066666666666601</v>
       </c>
       <c r="AC78" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD78">
+        <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s">
         <v>469</v>
       </c>
       <c r="C79">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="E79">
-        <v>11107</v>
+        <v>4627</v>
       </c>
       <c r="F79">
-        <v>2254</v>
+        <v>569</v>
       </c>
       <c r="G79">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="H79">
-        <v>5292</v>
+        <v>5552</v>
       </c>
       <c r="I79">
-        <v>480</v>
+        <v>185</v>
       </c>
       <c r="J79">
-        <v>5252</v>
+        <v>2278</v>
       </c>
       <c r="K79" t="s">
-        <v>103</v>
-      </c>
-      <c r="L79" t="s">
-        <v>500</v>
+        <v>96</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="M79">
-        <v>48.457000000000001</v>
+        <v>47.753999999999998</v>
       </c>
       <c r="N79" t="s">
+        <v>496</v>
+      </c>
+      <c r="O79" t="s">
+        <v>336</v>
+      </c>
+      <c r="P79" t="s">
         <v>233</v>
       </c>
-      <c r="O79" t="s">
-        <v>501</v>
-      </c>
-      <c r="P79" t="s">
-        <v>338</v>
-      </c>
       <c r="Q79" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="R79" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="S79" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="T79" s="4">
-        <v>44657</v>
+        <v>44293</v>
       </c>
       <c r="U79" t="s">
         <v>90</v>
@@ -9234,82 +9449,82 @@
       <c r="X79" t="s">
         <v>474</v>
       </c>
-      <c r="Y79">
-        <v>11</v>
-      </c>
       <c r="Z79" s="2">
-        <v>1.540972222222222</v>
+        <v>1.5326388888888891</v>
       </c>
       <c r="AA79" s="2">
-        <v>44657.540972222218</v>
+        <v>44293.532638888893</v>
       </c>
       <c r="AB79" s="7">
-        <v>16.6666666666666</v>
+        <v>12.8</v>
       </c>
       <c r="AC79" t="s">
-        <v>638</v>
+        <v>634</v>
+      </c>
+      <c r="AD79">
+        <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s">
         <v>469</v>
       </c>
       <c r="C80">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="E80">
-        <v>4627</v>
+        <v>11107</v>
       </c>
       <c r="F80">
-        <v>569</v>
+        <v>2254</v>
       </c>
       <c r="G80">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="H80">
-        <v>5552</v>
+        <v>5292</v>
       </c>
       <c r="I80">
-        <v>185</v>
+        <v>480</v>
       </c>
       <c r="J80">
-        <v>2278</v>
+        <v>5252</v>
       </c>
       <c r="K80" t="s">
-        <v>365</v>
-      </c>
-      <c r="L80" t="s">
-        <v>505</v>
+        <v>103</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="M80">
-        <v>46.372</v>
+        <v>48.457000000000001</v>
       </c>
       <c r="N80" t="s">
+        <v>233</v>
+      </c>
+      <c r="O80" t="s">
         <v>501</v>
       </c>
-      <c r="O80" t="s">
-        <v>336</v>
-      </c>
       <c r="P80" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="Q80" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="R80" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="S80" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="T80" s="4">
-        <v>45021</v>
+        <v>44657</v>
       </c>
       <c r="U80" t="s">
         <v>90</v>
@@ -9324,173 +9539,182 @@
         <v>474</v>
       </c>
       <c r="Y80">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z80" s="2">
         <v>1.540972222222222</v>
       </c>
       <c r="AA80" s="2">
-        <v>45021.540972222218</v>
+        <v>44657.540972222218</v>
       </c>
       <c r="AB80" s="7">
         <v>16.6666666666666</v>
       </c>
       <c r="AC80" t="s">
-        <v>638</v>
+        <v>635</v>
+      </c>
+      <c r="AD80">
+        <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>504</v>
+      </c>
+      <c r="B81" t="s">
+        <v>469</v>
+      </c>
+      <c r="C81">
+        <v>2023</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81">
+        <v>4627</v>
+      </c>
+      <c r="F81">
+        <v>569</v>
+      </c>
+      <c r="G81">
+        <v>154</v>
+      </c>
+      <c r="H81">
+        <v>5552</v>
+      </c>
+      <c r="I81">
+        <v>185</v>
+      </c>
+      <c r="J81">
+        <v>2278</v>
+      </c>
+      <c r="K81" t="s">
+        <v>365</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="M81">
+        <v>46.372</v>
+      </c>
+      <c r="N81" t="s">
+        <v>501</v>
+      </c>
+      <c r="O81" t="s">
+        <v>336</v>
+      </c>
+      <c r="P81" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>506</v>
+      </c>
+      <c r="R81" t="s">
+        <v>507</v>
+      </c>
+      <c r="S81" t="s">
+        <v>85</v>
+      </c>
+      <c r="T81" s="4">
+        <v>45021</v>
+      </c>
+      <c r="U81" t="s">
+        <v>90</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>481</v>
+      </c>
+      <c r="X81" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y81">
+        <v>12</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>1.540972222222222</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>45021.540972222218</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>16.6666666666666</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD81">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>508</v>
-      </c>
-      <c r="B81" t="s">
-        <v>509</v>
-      </c>
-      <c r="C81">
-        <v>2017</v>
-      </c>
-      <c r="D81" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81">
-        <v>4701</v>
-      </c>
-      <c r="F81">
-        <v>3670</v>
-      </c>
-      <c r="G81">
-        <v>3561</v>
-      </c>
-      <c r="H81">
-        <v>755</v>
-      </c>
-      <c r="I81">
-        <v>3304</v>
-      </c>
-      <c r="J81">
-        <v>3579</v>
-      </c>
-      <c r="K81" t="s">
-        <v>341</v>
-      </c>
-      <c r="L81" t="s">
-        <v>510</v>
-      </c>
-      <c r="M81">
-        <v>37.14</v>
-      </c>
-      <c r="N81" t="s">
-        <v>194</v>
-      </c>
-      <c r="O81" t="s">
-        <v>112</v>
-      </c>
-      <c r="P81" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>511</v>
-      </c>
-      <c r="R81" t="s">
-        <v>512</v>
-      </c>
-      <c r="S81" t="s">
-        <v>513</v>
-      </c>
-      <c r="T81" s="4">
-        <v>42798</v>
-      </c>
-      <c r="U81" t="s">
-        <v>86</v>
-      </c>
-      <c r="V81">
-        <v>147</v>
-      </c>
-      <c r="W81" t="s">
-        <v>514</v>
-      </c>
-      <c r="X81" t="s">
-        <v>514</v>
-      </c>
-      <c r="Z81" s="2">
-        <v>1.4861111111111109</v>
-      </c>
-      <c r="AA81" s="2">
-        <v>42798.486111111109</v>
-      </c>
-      <c r="AB81" s="7">
-        <v>16.566666666666599</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>515</v>
       </c>
       <c r="B82" t="s">
         <v>509</v>
       </c>
       <c r="C82">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D82" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>4887</v>
+        <v>4701</v>
       </c>
       <c r="F82">
-        <v>1912</v>
+        <v>3670</v>
       </c>
       <c r="G82">
-        <v>83</v>
+        <v>3561</v>
       </c>
       <c r="H82">
-        <v>901</v>
+        <v>755</v>
       </c>
       <c r="I82">
-        <v>2621</v>
+        <v>3304</v>
       </c>
       <c r="J82">
-        <v>2866</v>
+        <v>3579</v>
       </c>
       <c r="K82" t="s">
-        <v>92</v>
-      </c>
-      <c r="L82" t="s">
-        <v>516</v>
+        <v>341</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="M82">
-        <v>36.369999999999997</v>
+        <v>37.14</v>
       </c>
       <c r="N82" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="P82" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="Q82" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="R82" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="S82" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="T82" s="4">
-        <v>43162</v>
+        <v>42798</v>
       </c>
       <c r="U82" t="s">
         <v>86</v>
       </c>
       <c r="V82">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="W82" t="s">
         <v>514</v>
@@ -9499,84 +9723,87 @@
         <v>514</v>
       </c>
       <c r="Z82" s="2">
-        <v>1.447916666666667</v>
+        <v>1.4861111111111109</v>
       </c>
       <c r="AA82" s="2">
-        <v>43162.447916666657</v>
+        <v>42798.486111111109</v>
       </c>
       <c r="AB82" s="7">
-        <v>17.266666666666602</v>
+        <v>16.566666666666599</v>
       </c>
       <c r="AC82" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="AD82">
+        <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s">
         <v>509</v>
       </c>
       <c r="C83">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E83">
-        <v>6627</v>
+        <v>4887</v>
       </c>
       <c r="F83">
-        <v>2725</v>
+        <v>1912</v>
       </c>
       <c r="G83">
-        <v>1427</v>
+        <v>83</v>
       </c>
       <c r="H83">
-        <v>774</v>
+        <v>901</v>
       </c>
       <c r="I83">
-        <v>5233</v>
+        <v>2621</v>
       </c>
       <c r="J83">
-        <v>4583</v>
+        <v>2866</v>
       </c>
       <c r="K83" t="s">
-        <v>100</v>
-      </c>
-      <c r="L83" t="s">
-        <v>521</v>
+        <v>92</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>516</v>
       </c>
       <c r="M83">
-        <v>38.436</v>
+        <v>36.369999999999997</v>
       </c>
       <c r="N83" t="s">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="O83" t="s">
         <v>60</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q83" t="s">
-        <v>71</v>
+        <v>517</v>
       </c>
       <c r="R83" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="S83" t="s">
-        <v>36</v>
+        <v>519</v>
       </c>
       <c r="T83" s="4">
-        <v>43533</v>
+        <v>43162</v>
       </c>
       <c r="U83" t="s">
         <v>86</v>
       </c>
       <c r="V83">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="W83" t="s">
         <v>514</v>
@@ -9588,81 +9815,84 @@
         <v>1.447916666666667</v>
       </c>
       <c r="AA83" s="2">
-        <v>43533.447916666657</v>
+        <v>43162.447916666657</v>
       </c>
       <c r="AB83" s="7">
-        <v>17.033333333333299</v>
+        <v>17.266666666666602</v>
       </c>
       <c r="AC83" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD83">
+        <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s">
         <v>509</v>
       </c>
       <c r="C84">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84">
+        <v>6627</v>
+      </c>
+      <c r="F84">
+        <v>2725</v>
+      </c>
+      <c r="G84">
+        <v>1427</v>
+      </c>
+      <c r="H84">
+        <v>774</v>
+      </c>
+      <c r="I84">
+        <v>5233</v>
+      </c>
+      <c r="J84">
+        <v>4583</v>
+      </c>
+      <c r="K84" t="s">
+        <v>100</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="M84">
+        <v>38.436</v>
+      </c>
+      <c r="N84" t="s">
+        <v>54</v>
+      </c>
+      <c r="O84" t="s">
         <v>60</v>
       </c>
-      <c r="E84">
-        <v>7194</v>
-      </c>
-      <c r="F84">
-        <v>1171</v>
-      </c>
-      <c r="G84">
-        <v>2944</v>
-      </c>
-      <c r="H84">
-        <v>1886</v>
-      </c>
-      <c r="I84">
-        <v>2044</v>
-      </c>
-      <c r="J84">
-        <v>4221</v>
-      </c>
-      <c r="K84" t="s">
-        <v>61</v>
-      </c>
-      <c r="L84" t="s">
-        <v>524</v>
-      </c>
-      <c r="M84">
-        <v>36.93</v>
-      </c>
-      <c r="N84" t="s">
-        <v>312</v>
-      </c>
-      <c r="O84" t="s">
-        <v>56</v>
-      </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="R84" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="S84" t="s">
-        <v>526</v>
+        <v>36</v>
       </c>
       <c r="T84" s="4">
-        <v>44044</v>
+        <v>43533</v>
       </c>
       <c r="U84" t="s">
         <v>86</v>
       </c>
       <c r="V84">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="W84" t="s">
         <v>514</v>
@@ -9671,78 +9901,81 @@
         <v>514</v>
       </c>
       <c r="Z84" s="2">
-        <v>1.572916666666667</v>
+        <v>1.447916666666667</v>
       </c>
       <c r="AA84" s="2">
-        <v>44044.572916666657</v>
+        <v>43533.447916666657</v>
       </c>
       <c r="AB84" s="7">
-        <v>17.399999999999999</v>
+        <v>17.033333333333299</v>
       </c>
       <c r="AC84" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD84">
+        <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s">
         <v>509</v>
       </c>
       <c r="C85">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E85">
-        <v>6991</v>
+        <v>7194</v>
       </c>
       <c r="F85">
-        <v>1119</v>
+        <v>1171</v>
       </c>
       <c r="G85">
-        <v>968</v>
+        <v>2944</v>
       </c>
       <c r="H85">
-        <v>1286</v>
+        <v>1886</v>
       </c>
       <c r="I85">
-        <v>1042</v>
+        <v>2044</v>
       </c>
       <c r="J85">
-        <v>3090</v>
+        <v>4221</v>
       </c>
       <c r="K85" t="s">
-        <v>96</v>
-      </c>
-      <c r="L85" t="s">
-        <v>528</v>
+        <v>61</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="M85">
-        <v>39.36</v>
+        <v>36.93</v>
       </c>
       <c r="N85" t="s">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="O85" t="s">
-        <v>529</v>
+        <v>56</v>
       </c>
       <c r="P85" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="Q85" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="S85" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="T85" s="4">
-        <v>44261</v>
+        <v>44044</v>
       </c>
       <c r="U85" t="s">
         <v>86</v>
@@ -9757,84 +9990,87 @@
         <v>514</v>
       </c>
       <c r="Z85" s="2">
-        <v>1.489583333333333</v>
+        <v>1.572916666666667</v>
       </c>
       <c r="AA85" s="2">
-        <v>44261.489583333343</v>
+        <v>44044.572916666657</v>
       </c>
       <c r="AB85" s="7">
         <v>17.399999999999999</v>
       </c>
       <c r="AC85" t="s">
-        <v>637</v>
+        <v>634</v>
+      </c>
+      <c r="AD85">
+        <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s">
         <v>509</v>
       </c>
       <c r="C86">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E86">
-        <v>6177</v>
+        <v>6991</v>
       </c>
       <c r="F86">
-        <v>6344</v>
+        <v>1119</v>
       </c>
       <c r="G86">
-        <v>2623</v>
+        <v>968</v>
       </c>
       <c r="H86">
-        <v>227</v>
+        <v>1286</v>
       </c>
       <c r="I86">
-        <v>7973</v>
+        <v>1042</v>
       </c>
       <c r="J86">
-        <v>3330</v>
+        <v>3090</v>
       </c>
       <c r="K86" t="s">
-        <v>76</v>
-      </c>
-      <c r="L86" t="s">
-        <v>533</v>
+        <v>96</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="M86">
-        <v>38.357999999999997</v>
+        <v>39.36</v>
       </c>
       <c r="N86" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O86" t="s">
-        <v>199</v>
+        <v>529</v>
       </c>
       <c r="P86" t="s">
-        <v>534</v>
+        <v>60</v>
       </c>
       <c r="Q86" t="s">
-        <v>535</v>
+        <v>63</v>
       </c>
       <c r="R86" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="S86" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="T86" s="4">
-        <v>44625</v>
+        <v>44261</v>
       </c>
       <c r="U86" t="s">
         <v>86</v>
       </c>
       <c r="V86">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="W86" t="s">
         <v>514</v>
@@ -9846,81 +10082,84 @@
         <v>1.489583333333333</v>
       </c>
       <c r="AA86" s="2">
-        <v>44625.489583333343</v>
+        <v>44261.489583333343</v>
       </c>
       <c r="AB86" s="7">
-        <v>17.766666666666602</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AC86" t="s">
-        <v>638</v>
+        <v>634</v>
+      </c>
+      <c r="AD86">
+        <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s">
         <v>509</v>
       </c>
       <c r="C87">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E87">
-        <v>2334</v>
+        <v>6177</v>
       </c>
       <c r="F87">
-        <v>941</v>
+        <v>6344</v>
       </c>
       <c r="G87">
-        <v>137</v>
+        <v>2623</v>
       </c>
       <c r="H87">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="I87">
-        <v>1586</v>
+        <v>7973</v>
       </c>
       <c r="J87">
-        <v>1506</v>
+        <v>3330</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
-      </c>
-      <c r="L87" t="s">
-        <v>539</v>
+        <v>76</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>533</v>
       </c>
       <c r="M87">
-        <v>40.636000000000003</v>
+        <v>38.357999999999997</v>
       </c>
       <c r="N87" t="s">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="P87" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q87" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R87" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="S87" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="T87" s="4">
-        <v>44989</v>
+        <v>44625</v>
       </c>
       <c r="U87" t="s">
         <v>86</v>
       </c>
       <c r="V87">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W87" t="s">
         <v>514</v>
@@ -9928,449 +10167,467 @@
       <c r="X87" t="s">
         <v>514</v>
       </c>
-      <c r="Y87">
-        <v>13</v>
-      </c>
       <c r="Z87" s="2">
         <v>1.489583333333333</v>
       </c>
       <c r="AA87" s="2">
+        <v>44625.489583333343</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>17.766666666666602</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD87">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>538</v>
+      </c>
+      <c r="B88" t="s">
+        <v>509</v>
+      </c>
+      <c r="C88">
+        <v>2023</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88">
+        <v>2334</v>
+      </c>
+      <c r="F88">
+        <v>941</v>
+      </c>
+      <c r="G88">
+        <v>137</v>
+      </c>
+      <c r="H88">
+        <v>348</v>
+      </c>
+      <c r="I88">
+        <v>1586</v>
+      </c>
+      <c r="J88">
+        <v>1506</v>
+      </c>
+      <c r="K88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="M88">
+        <v>40.636000000000003</v>
+      </c>
+      <c r="N88" t="s">
+        <v>331</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>534</v>
+      </c>
+      <c r="R88" t="s">
+        <v>541</v>
+      </c>
+      <c r="S88" t="s">
+        <v>542</v>
+      </c>
+      <c r="T88" s="4">
+        <v>44989</v>
+      </c>
+      <c r="U88" t="s">
+        <v>86</v>
+      </c>
+      <c r="V88">
+        <v>168</v>
+      </c>
+      <c r="W88" t="s">
+        <v>514</v>
+      </c>
+      <c r="X88" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y88">
+        <v>13</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>1.489583333333333</v>
+      </c>
+      <c r="AA88" s="2">
         <v>44989.489583333343</v>
       </c>
-      <c r="AB87" s="7">
+      <c r="AB88" s="7">
         <v>17.533333333333299</v>
       </c>
-      <c r="AC87" t="s">
-        <v>638</v>
+      <c r="AC88" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD88">
+        <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>545</v>
-      </c>
-      <c r="B88" t="s">
-        <v>543</v>
-      </c>
-      <c r="C88">
-        <v>2017</v>
-      </c>
-      <c r="D88" t="s">
-        <v>346</v>
-      </c>
-      <c r="E88">
-        <v>4763</v>
-      </c>
-      <c r="F88">
-        <v>9872</v>
-      </c>
-      <c r="G88">
-        <v>3781</v>
-      </c>
-      <c r="H88">
-        <v>274</v>
-      </c>
-      <c r="I88">
-        <v>9274</v>
-      </c>
-      <c r="J88">
-        <v>2889</v>
-      </c>
-      <c r="K88" t="s">
-        <v>109</v>
-      </c>
-      <c r="L88" s="3">
-        <v>0.26075231481481481</v>
-      </c>
-      <c r="M88">
-        <v>39.47</v>
-      </c>
-      <c r="N88" t="s">
-        <v>55</v>
-      </c>
-      <c r="O88" t="s">
-        <v>411</v>
-      </c>
-      <c r="P88" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>568</v>
-      </c>
-      <c r="R88" t="s">
-        <v>573</v>
-      </c>
-      <c r="S88" t="s">
-        <v>560</v>
-      </c>
-      <c r="T88" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="U88" t="s">
-        <v>37</v>
-      </c>
-      <c r="V88">
-        <v>279</v>
-      </c>
-      <c r="W88" t="s">
-        <v>616</v>
-      </c>
-      <c r="X88" t="s">
-        <v>617</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB88" s="7">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>546</v>
       </c>
       <c r="B89" t="s">
         <v>543</v>
       </c>
       <c r="C89">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89">
+        <v>4763</v>
+      </c>
+      <c r="F89">
+        <v>9872</v>
+      </c>
+      <c r="G89">
+        <v>3781</v>
+      </c>
+      <c r="H89">
+        <v>274</v>
+      </c>
+      <c r="I89">
+        <v>9274</v>
+      </c>
+      <c r="J89">
+        <v>2889</v>
+      </c>
+      <c r="K89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0.26075231481481481</v>
+      </c>
+      <c r="M89">
+        <v>39.47</v>
+      </c>
+      <c r="N89" t="s">
+        <v>55</v>
+      </c>
+      <c r="O89" t="s">
+        <v>411</v>
+      </c>
+      <c r="P89" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q89" t="s">
         <v>568</v>
       </c>
-      <c r="E89">
-        <v>1919</v>
-      </c>
-      <c r="F89">
-        <v>6908</v>
-      </c>
-      <c r="G89">
-        <v>1547</v>
-      </c>
-      <c r="H89">
-        <v>4</v>
-      </c>
-      <c r="I89">
-        <v>7740</v>
-      </c>
-      <c r="J89">
-        <v>1538</v>
-      </c>
-      <c r="K89" t="s">
-        <v>570</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0.24539351851851851</v>
-      </c>
-      <c r="M89">
-        <v>40.92</v>
-      </c>
-      <c r="N89" t="s">
-        <v>346</v>
-      </c>
-      <c r="O89" t="s">
-        <v>257</v>
-      </c>
-      <c r="P89" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>112</v>
-      </c>
       <c r="R89" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="S89" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T89" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="U89" t="s">
         <v>37</v>
       </c>
       <c r="V89">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="W89" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="X89" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z89" t="s">
         <v>617</v>
       </c>
-      <c r="Z89" t="s">
-        <v>621</v>
-      </c>
       <c r="AB89" s="7">
-        <v>13.2</v>
+        <v>18.8333333333333</v>
       </c>
       <c r="AC89" t="s">
-        <v>637</v>
+        <v>635</v>
+      </c>
+      <c r="AD89">
+        <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B90" t="s">
         <v>543</v>
       </c>
       <c r="C90">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E90">
-        <v>5213</v>
+        <v>1919</v>
       </c>
       <c r="F90">
-        <v>6008</v>
+        <v>6908</v>
       </c>
       <c r="G90">
-        <v>2074</v>
+        <v>1547</v>
       </c>
       <c r="H90">
-        <v>724</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>7432</v>
+        <v>7740</v>
       </c>
       <c r="J90">
-        <v>4093</v>
+        <v>1538</v>
       </c>
       <c r="K90" t="s">
-        <v>236</v>
-      </c>
-      <c r="L90" s="3">
-        <v>0.24512731481481481</v>
+        <v>570</v>
+      </c>
+      <c r="L90" s="9">
+        <v>0.24539351851851851</v>
       </c>
       <c r="M90">
-        <v>41.305</v>
+        <v>40.92</v>
       </c>
       <c r="N90" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="O90" t="s">
-        <v>529</v>
+        <v>257</v>
       </c>
       <c r="P90" t="s">
-        <v>54</v>
+        <v>574</v>
       </c>
       <c r="Q90" t="s">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="R90" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="S90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T90" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="U90" t="s">
-        <v>632</v>
+        <v>37</v>
       </c>
       <c r="V90">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="W90" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="X90" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Z90" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AB90" s="7">
-        <v>18.3666666666666</v>
+        <v>13.2</v>
       </c>
       <c r="AC90" t="s">
-        <v>645</v>
+        <v>634</v>
+      </c>
+      <c r="AD90">
+        <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B91" t="s">
         <v>543</v>
       </c>
       <c r="C91">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D91" t="s">
+        <v>569</v>
+      </c>
+      <c r="E91">
+        <v>5213</v>
+      </c>
+      <c r="F91">
+        <v>6008</v>
+      </c>
+      <c r="G91">
+        <v>2074</v>
+      </c>
+      <c r="H91">
+        <v>724</v>
+      </c>
+      <c r="I91">
+        <v>7432</v>
+      </c>
+      <c r="J91">
+        <v>4093</v>
+      </c>
+      <c r="K91" t="s">
+        <v>236</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0.24512731481481481</v>
+      </c>
+      <c r="M91">
+        <v>41.305</v>
+      </c>
+      <c r="N91" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" t="s">
+        <v>529</v>
+      </c>
+      <c r="P91" t="s">
         <v>54</v>
       </c>
-      <c r="E91">
-        <v>3639</v>
-      </c>
-      <c r="F91">
-        <v>6633</v>
-      </c>
-      <c r="G91">
-        <v>1693</v>
-      </c>
-      <c r="H91">
-        <v>191</v>
-      </c>
-      <c r="I91">
-        <v>5796</v>
-      </c>
-      <c r="J91">
-        <v>2402</v>
-      </c>
-      <c r="K91" t="s">
-        <v>42</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0.23118055555555556</v>
-      </c>
-      <c r="M91">
-        <v>41.63</v>
-      </c>
-      <c r="N91" t="s">
-        <v>577</v>
-      </c>
-      <c r="O91" t="s">
-        <v>288</v>
-      </c>
-      <c r="P91" t="s">
-        <v>569</v>
-      </c>
       <c r="Q91" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="R91" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S91" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T91" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="U91" t="s">
-        <v>37</v>
+        <v>629</v>
       </c>
       <c r="V91">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="W91" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="X91" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Z91" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AB91" s="7">
         <v>18.3666666666666</v>
       </c>
       <c r="AC91" t="s">
-        <v>645</v>
+        <v>642</v>
+      </c>
+      <c r="AD91">
+        <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s">
         <v>543</v>
       </c>
       <c r="C92">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E92">
-        <v>6177</v>
+        <v>3639</v>
       </c>
       <c r="F92">
-        <v>6344</v>
+        <v>6633</v>
       </c>
       <c r="G92">
-        <v>2623</v>
+        <v>1693</v>
       </c>
       <c r="H92">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="I92">
-        <v>7973</v>
+        <v>5796</v>
       </c>
       <c r="J92">
-        <v>3330</v>
+        <v>2402</v>
       </c>
       <c r="K92" t="s">
-        <v>76</v>
-      </c>
-      <c r="L92" s="3">
-        <v>0.25114583333333335</v>
+        <v>42</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0.23118055555555556</v>
       </c>
       <c r="M92">
-        <v>39.652000000000001</v>
+        <v>41.63</v>
       </c>
       <c r="N92" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O92" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>569</v>
       </c>
       <c r="Q92" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="R92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="S92" t="s">
-        <v>36</v>
+        <v>563</v>
       </c>
       <c r="T92" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="U92" t="s">
         <v>37</v>
       </c>
       <c r="V92">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="W92" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X92" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y92">
-        <v>13</v>
+        <v>614</v>
       </c>
       <c r="Z92" t="s">
         <v>620</v>
       </c>
       <c r="AB92" s="7">
-        <v>15.1</v>
+        <v>18.3666666666666</v>
       </c>
       <c r="AC92" t="s">
-        <v>645</v>
+        <v>642</v>
+      </c>
+      <c r="AD92">
+        <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s">
         <v>543</v>
       </c>
       <c r="C93">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
@@ -10396,67 +10653,70 @@
       <c r="K93" t="s">
         <v>76</v>
       </c>
-      <c r="L93" s="3">
-        <v>0.26483796296296297</v>
+      <c r="L93" s="9">
+        <v>0.25114583333333335</v>
       </c>
       <c r="M93">
-        <v>39.804000000000002</v>
+        <v>39.652000000000001</v>
       </c>
       <c r="N93" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O93" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="P93" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="Q93" t="s">
-        <v>582</v>
+        <v>47</v>
       </c>
       <c r="R93" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="S93" t="s">
         <v>36</v>
       </c>
       <c r="T93" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="U93" t="s">
         <v>37</v>
       </c>
       <c r="V93">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="W93" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="X93" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y93">
+        <v>13</v>
+      </c>
+      <c r="Z93" t="s">
         <v>617</v>
       </c>
-      <c r="Y93">
-        <v>20</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>624</v>
-      </c>
       <c r="AB93" s="7">
-        <v>15.233333333333301</v>
+        <v>15.1</v>
       </c>
       <c r="AC93" t="s">
-        <v>638</v>
+        <v>642</v>
+      </c>
+      <c r="AD93">
+        <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s">
         <v>543</v>
       </c>
       <c r="C94">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
@@ -10482,447 +10742,465 @@
       <c r="K94" t="s">
         <v>76</v>
       </c>
-      <c r="L94" s="3">
-        <v>0.24690972222222221</v>
+      <c r="L94" s="9">
+        <v>0.26483796296296297</v>
       </c>
       <c r="M94">
-        <v>40.162999999999997</v>
+        <v>39.804000000000002</v>
       </c>
       <c r="N94" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="O94" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P94" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="Q94" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="R94" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="S94" t="s">
-        <v>564</v>
+        <v>36</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="U94" t="s">
         <v>37</v>
       </c>
       <c r="V94">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="W94" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="X94" t="s">
-        <v>616</v>
+        <v>614</v>
+      </c>
+      <c r="Y94">
+        <v>20</v>
       </c>
       <c r="Z94" t="s">
         <v>621</v>
       </c>
       <c r="AB94" s="7">
+        <v>15.233333333333301</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD94">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" t="s">
+        <v>543</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95">
+        <v>6177</v>
+      </c>
+      <c r="F95">
+        <v>6344</v>
+      </c>
+      <c r="G95">
+        <v>2623</v>
+      </c>
+      <c r="H95">
+        <v>227</v>
+      </c>
+      <c r="I95">
+        <v>7973</v>
+      </c>
+      <c r="J95">
+        <v>3330</v>
+      </c>
+      <c r="K95" t="s">
+        <v>76</v>
+      </c>
+      <c r="L95" s="9">
+        <v>0.24690972222222221</v>
+      </c>
+      <c r="M95">
+        <v>40.162999999999997</v>
+      </c>
+      <c r="N95" t="s">
+        <v>584</v>
+      </c>
+      <c r="O95" t="s">
+        <v>282</v>
+      </c>
+      <c r="P95" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>585</v>
+      </c>
+      <c r="R95" t="s">
+        <v>586</v>
+      </c>
+      <c r="S95" t="s">
+        <v>564</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="U95" t="s">
+        <v>37</v>
+      </c>
+      <c r="V95">
+        <v>206</v>
+      </c>
+      <c r="W95" t="s">
+        <v>614</v>
+      </c>
+      <c r="X95" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB95" s="7">
         <v>14.8666666666666</v>
       </c>
-      <c r="AC94" t="s">
-        <v>638</v>
+      <c r="AC95" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD95">
+        <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>552</v>
-      </c>
-      <c r="B95" t="s">
-        <v>559</v>
-      </c>
-      <c r="C95">
-        <v>2017</v>
-      </c>
-      <c r="D95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95">
-        <v>9426</v>
-      </c>
-      <c r="F95">
-        <v>1797</v>
-      </c>
-      <c r="G95">
-        <v>1335</v>
-      </c>
-      <c r="H95">
-        <v>5996</v>
-      </c>
-      <c r="I95">
-        <v>2578</v>
-      </c>
-      <c r="J95">
-        <v>8566</v>
-      </c>
-      <c r="K95" t="s">
-        <v>88</v>
-      </c>
-      <c r="L95" s="3">
-        <v>0.19292824074074075</v>
-      </c>
-      <c r="M95">
-        <v>43.35</v>
-      </c>
-      <c r="N95" t="s">
-        <v>84</v>
-      </c>
-      <c r="O95" t="s">
-        <v>587</v>
-      </c>
-      <c r="P95" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>133</v>
-      </c>
-      <c r="R95" t="s">
-        <v>588</v>
-      </c>
-      <c r="S95" t="s">
-        <v>58</v>
-      </c>
-      <c r="T95" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="U95" t="s">
-        <v>90</v>
-      </c>
-      <c r="V95">
-        <v>22</v>
-      </c>
-      <c r="W95" t="s">
-        <v>618</v>
-      </c>
-      <c r="X95" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB95" s="7">
-        <v>15.466666666666599</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>553</v>
       </c>
       <c r="B96" t="s">
         <v>559</v>
       </c>
       <c r="C96">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="E96">
-        <v>3987</v>
+        <v>9426</v>
       </c>
       <c r="F96">
-        <v>380</v>
+        <v>1797</v>
       </c>
       <c r="G96">
-        <v>15</v>
+        <v>1335</v>
       </c>
       <c r="H96">
-        <v>7842</v>
+        <v>5996</v>
       </c>
       <c r="I96">
-        <v>38</v>
+        <v>2578</v>
       </c>
       <c r="J96">
-        <v>967</v>
+        <v>8566</v>
       </c>
       <c r="K96" t="s">
-        <v>571</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0.20255787037037037</v>
+        <v>88</v>
+      </c>
+      <c r="L96" s="9">
+        <v>0.19292824074074075</v>
       </c>
       <c r="M96">
-        <v>41.16</v>
+        <v>43.35</v>
       </c>
       <c r="N96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O96" t="s">
-        <v>108</v>
+        <v>587</v>
       </c>
       <c r="P96" t="s">
-        <v>589</v>
+        <v>71</v>
       </c>
       <c r="Q96" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="R96" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="S96" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="U96" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="V96">
         <v>22</v>
       </c>
       <c r="W96" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="X96" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Z96" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AB96" s="7">
-        <v>2.36666666666666</v>
+        <v>15.466666666666599</v>
       </c>
       <c r="AC96" t="s">
-        <v>644</v>
+        <v>635</v>
+      </c>
+      <c r="AD96">
+        <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B97" t="s">
         <v>559</v>
       </c>
       <c r="C97">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E97">
-        <v>1220</v>
+        <v>3987</v>
       </c>
       <c r="F97">
-        <v>2619</v>
+        <v>380</v>
       </c>
       <c r="G97">
-        <v>2692</v>
+        <v>15</v>
       </c>
       <c r="H97">
-        <v>140</v>
+        <v>7842</v>
       </c>
       <c r="I97">
-        <v>1644</v>
+        <v>38</v>
       </c>
       <c r="J97">
-        <v>1282</v>
+        <v>967</v>
       </c>
       <c r="K97" t="s">
-        <v>100</v>
-      </c>
-      <c r="L97" s="3">
-        <v>0.19645833333333335</v>
+        <v>571</v>
+      </c>
+      <c r="L97" s="9">
+        <v>0.20255787037037037</v>
       </c>
       <c r="M97">
-        <v>42.651000000000003</v>
+        <v>41.16</v>
       </c>
       <c r="N97" t="s">
-        <v>592</v>
+        <v>83</v>
       </c>
       <c r="O97" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="P97" t="s">
-        <v>154</v>
+        <v>589</v>
       </c>
       <c r="Q97" t="s">
-        <v>151</v>
+        <v>590</v>
       </c>
       <c r="R97" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="S97" t="s">
-        <v>565</v>
+        <v>85</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="U97" t="s">
         <v>37</v>
       </c>
       <c r="V97">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="W97" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="X97" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Z97" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AB97" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.36666666666666</v>
       </c>
       <c r="AC97" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="AD97">
+        <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s">
         <v>559</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E98">
-        <v>1600</v>
+        <v>1220</v>
       </c>
       <c r="F98">
-        <v>796</v>
+        <v>2619</v>
       </c>
       <c r="G98">
-        <v>2362</v>
+        <v>2692</v>
       </c>
       <c r="H98">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="I98">
-        <v>498</v>
+        <v>1644</v>
       </c>
       <c r="J98">
-        <v>1426</v>
+        <v>1282</v>
       </c>
       <c r="K98" t="s">
         <v>100</v>
       </c>
-      <c r="L98" s="3">
-        <v>0.19951388888888888</v>
+      <c r="L98" s="9">
+        <v>0.19645833333333335</v>
       </c>
       <c r="M98">
-        <v>41.98</v>
+        <v>42.651000000000003</v>
       </c>
       <c r="N98" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
       <c r="O98" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="P98" t="s">
-        <v>476</v>
+        <v>154</v>
       </c>
       <c r="Q98" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="R98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T98" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="U98" t="s">
         <v>37</v>
       </c>
       <c r="V98">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W98" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="X98" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Z98" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AB98" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="AC98" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="AD98">
+        <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
         <v>559</v>
       </c>
       <c r="C99">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E99">
-        <v>3782</v>
+        <v>1600</v>
       </c>
       <c r="F99">
-        <v>1498</v>
+        <v>796</v>
       </c>
       <c r="G99">
-        <v>1697</v>
+        <v>2362</v>
       </c>
       <c r="H99">
-        <v>2692</v>
+        <v>357</v>
       </c>
       <c r="I99">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="J99">
-        <v>2754</v>
+        <v>1426</v>
       </c>
       <c r="K99" t="s">
-        <v>236</v>
-      </c>
-      <c r="L99" s="3">
-        <v>0.19240740740740742</v>
+        <v>100</v>
+      </c>
+      <c r="L99" s="9">
+        <v>0.19951388888888888</v>
       </c>
       <c r="M99">
-        <v>42.66</v>
+        <v>41.98</v>
       </c>
       <c r="N99" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="P99" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="Q99" t="s">
-        <v>595</v>
+        <v>84</v>
       </c>
       <c r="R99" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="S99" t="s">
-        <v>85</v>
+        <v>566</v>
       </c>
       <c r="T99" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="U99" t="s">
         <v>37</v>
@@ -10931,197 +11209,273 @@
         <v>38</v>
       </c>
       <c r="W99" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="X99" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="Z99" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AB99" s="7">
-        <v>1.4666666666666599</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AC99" t="s">
-        <v>640</v>
+        <v>641</v>
+      </c>
+      <c r="AD99">
+        <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B100" t="s">
         <v>559</v>
       </c>
       <c r="C100">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>476</v>
+        <v>164</v>
       </c>
       <c r="E100">
-        <v>1883</v>
+        <v>3782</v>
       </c>
       <c r="F100">
-        <v>143</v>
+        <v>1498</v>
       </c>
       <c r="G100">
-        <v>38</v>
+        <v>1697</v>
       </c>
       <c r="H100">
-        <v>3874</v>
+        <v>2692</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="J100">
-        <v>654</v>
+        <v>2754</v>
       </c>
       <c r="K100" t="s">
-        <v>321</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0.18903935185185186</v>
+        <v>236</v>
+      </c>
+      <c r="L100" s="9">
+        <v>0.19240740740740742</v>
       </c>
       <c r="M100">
-        <v>43.003</v>
+        <v>42.66</v>
       </c>
       <c r="N100" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="O100" t="s">
-        <v>485</v>
+        <v>63</v>
       </c>
       <c r="P100" t="s">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="Q100" t="s">
-        <v>242</v>
+        <v>595</v>
       </c>
       <c r="R100" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="S100" t="s">
         <v>85</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="U100" t="s">
         <v>37</v>
       </c>
       <c r="V100">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="W100" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="X100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Z100" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AB100" s="7">
-        <v>1.7333333333333301</v>
+        <v>1.4666666666666599</v>
       </c>
       <c r="AC100" t="s">
-        <v>646</v>
+        <v>637</v>
+      </c>
+      <c r="AD100">
+        <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s">
         <v>559</v>
       </c>
       <c r="C101">
+        <v>2022</v>
+      </c>
+      <c r="D101" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101">
+        <v>1883</v>
+      </c>
+      <c r="F101">
+        <v>143</v>
+      </c>
+      <c r="G101">
+        <v>38</v>
+      </c>
+      <c r="H101">
+        <v>3874</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>654</v>
+      </c>
+      <c r="K101" t="s">
+        <v>321</v>
+      </c>
+      <c r="L101" s="9">
+        <v>0.18903935185185186</v>
+      </c>
+      <c r="M101">
+        <v>43.003</v>
+      </c>
+      <c r="N101" t="s">
+        <v>91</v>
+      </c>
+      <c r="O101" t="s">
+        <v>485</v>
+      </c>
+      <c r="P101" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>242</v>
+      </c>
+      <c r="R101" t="s">
+        <v>598</v>
+      </c>
+      <c r="S101" t="s">
+        <v>85</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="U101" t="s">
+        <v>37</v>
+      </c>
+      <c r="V101">
+        <v>45</v>
+      </c>
+      <c r="W101" t="s">
+        <v>615</v>
+      </c>
+      <c r="X101" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>643</v>
+      </c>
+      <c r="AD101">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>558</v>
+      </c>
+      <c r="B102" t="s">
+        <v>559</v>
+      </c>
+      <c r="C102">
         <v>2023</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>71</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>4887</v>
       </c>
-      <c r="F101">
+      <c r="F102">
+        <v>1912</v>
+      </c>
+      <c r="G102">
         <v>83</v>
       </c>
-      <c r="G101">
+      <c r="H102">
         <v>901</v>
       </c>
-      <c r="H101">
+      <c r="I102">
         <v>2621</v>
       </c>
-      <c r="I101">
+      <c r="J102">
         <v>2866</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K102" t="s">
         <v>185</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L102" s="9">
         <v>0.18917824074074074</v>
       </c>
-      <c r="L101">
+      <c r="M102">
         <v>42.53</v>
       </c>
-      <c r="M101" t="s">
-        <v>599</v>
-      </c>
-      <c r="N101" t="s">
-        <v>207</v>
-      </c>
-      <c r="O101" t="s">
-        <v>600</v>
-      </c>
-      <c r="P101" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>601</v>
-      </c>
-      <c r="R101" t="s">
+      <c r="S102" t="s">
         <v>567</v>
       </c>
-      <c r="S101" s="5" t="s">
+      <c r="T102" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="U102" t="s">
+        <v>37</v>
+      </c>
+      <c r="V102">
+        <v>43</v>
+      </c>
+      <c r="W102" t="s">
         <v>615</v>
       </c>
-      <c r="T101" t="s">
-        <v>37</v>
-      </c>
-      <c r="U101">
-        <v>43</v>
-      </c>
-      <c r="V101" t="s">
-        <v>618</v>
-      </c>
-      <c r="W101" t="s">
-        <v>618</v>
-      </c>
-      <c r="X101">
+      <c r="X102" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y102">
         <v>5</v>
       </c>
-      <c r="Y101" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB101" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E102">
-        <v>1912</v>
+      <c r="Z102" t="s">
+        <v>627</v>
       </c>
       <c r="AB102" s="7">
         <v>0.9</v>
       </c>
       <c r="AC102" t="s">
-        <v>646</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="AD102">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="K103" s="3"/>
+      <c r="AB103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/baseline_data.xlsx
+++ b/notebooks/baseline_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmik\OneDrive\Desktop\NSS\Python\Projects\Cycling_Capstone\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13E46A-4D53-4DA4-BACA-8105B5CFAC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA036B5-0419-4C64-A7E2-215B135E710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="646">
   <si>
     <t>PCS race entry</t>
   </si>
@@ -523,9 +523,6 @@
     <t>0.8 km solo</t>
   </si>
   <si>
-    <t>2019dwarsdoorvlaanderen-atraverslaflandre</t>
-  </si>
-  <si>
     <t>4:05:54</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>TURGIS Anthony - 4:05:54, JUNGELS Bob - 4:05:54, PÖSTLBERGER Lukas - 4:05:54, BENOOT Tiesj - 4:05:54</t>
   </si>
   <si>
-    <t>2021dwarsdoorvlaanderen-atraverslaflandre</t>
-  </si>
-  <si>
     <t>VAN BAARLE Dylan</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>BENOOT Tiesj - 4:05:40, PIDCOCK Thomas - 4:05:44, CAMPENAERTS Victor - 4:05:44, POLITT Nils - 4:05:44</t>
   </si>
   <si>
-    <t>2023dwarsdoorvlaanderen-atraverslaflandre</t>
-  </si>
-  <si>
     <t>Jumbo-Visma</t>
   </si>
   <si>
@@ -1174,9 +1165,6 @@
     <t>Meerbeke</t>
   </si>
   <si>
-    <t>2019omloophetnieuwsbladelite</t>
-  </si>
-  <si>
     <t>4:53:17</t>
   </si>
   <si>
@@ -1204,9 +1192,6 @@
     <t>Ghent</t>
   </si>
   <si>
-    <t>2021omloophetnieuwsbladelite</t>
-  </si>
-  <si>
     <t>4:43:03</t>
   </si>
   <si>
@@ -1219,9 +1204,6 @@
     <t>STEWART Jake - 4:43:03, VANMARCKE Sep - 4:43:03, HAUSSLER Heinrich - 4:43:03, GILBERT Philippe - 4:43:03</t>
   </si>
   <si>
-    <t>2022omloophetnieuwsbladelite</t>
-  </si>
-  <si>
     <t>4:50:46</t>
   </si>
   <si>
@@ -1408,9 +1390,6 @@
     <t>VAN DER POEL Mathieu - 6:02:12, VAN AVERMAET Greg - 6:02:44, STUYVEN Jasper - 6:02:45, VANMARCKE Sep - 6:02:59</t>
   </si>
   <si>
-    <t>2022rondevanvlaanderen-tourdesflandres</t>
-  </si>
-  <si>
     <t>6:18:30</t>
   </si>
   <si>
@@ -1961,6 +1940,24 @@
   </si>
   <si>
     <t>Race distance</t>
+  </si>
+  <si>
+    <t>2019dwarsdoorvlaanderen</t>
+  </si>
+  <si>
+    <t>2021dwarsdoorvlaanderen</t>
+  </si>
+  <si>
+    <t>2023dwarsdoorvlaanderen</t>
+  </si>
+  <si>
+    <t>2019omloophetnieuwsblad</t>
+  </si>
+  <si>
+    <t>2021omloophetnieuwsblad</t>
+  </si>
+  <si>
+    <t>2022omloophetnieuwsblad</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1967,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2055,11 +2052,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2366,10 +2363,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A79" sqref="A79"/>
-      <selection pane="topRight" activeCell="AD79" sqref="AD79"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2487,13 +2484,13 @@
         <v>25</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -2579,7 +2576,7 @@
         <v>15.733333333333301</v>
       </c>
       <c r="AC2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD2">
         <v>261</v>
@@ -2668,7 +2665,7 @@
         <v>15.8666666666666</v>
       </c>
       <c r="AC3" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD3">
         <v>261</v>
@@ -2757,7 +2754,7 @@
         <v>16.466666666666601</v>
       </c>
       <c r="AC4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD4">
         <v>266</v>
@@ -2846,7 +2843,7 @@
         <v>13.566666666666601</v>
       </c>
       <c r="AC5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD5">
         <v>218</v>
@@ -2938,7 +2935,7 @@
         <v>13.6</v>
       </c>
       <c r="AC6" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD6">
         <v>254</v>
@@ -3030,7 +3027,7 @@
         <v>13.6</v>
       </c>
       <c r="AC7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD7">
         <v>253</v>
@@ -3119,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="AC8" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD8">
         <v>197</v>
@@ -3208,7 +3205,7 @@
         <v>14.7666666666666</v>
       </c>
       <c r="AC9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD9">
         <v>201</v>
@@ -3297,7 +3294,7 @@
         <v>14.5</v>
       </c>
       <c r="AC10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD10">
         <v>199</v>
@@ -3386,7 +3383,7 @@
         <v>14.7666666666666</v>
       </c>
       <c r="AC11" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD11">
         <v>196</v>
@@ -3475,7 +3472,7 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC12" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD12">
         <v>201</v>
@@ -3567,7 +3564,7 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC13" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD13">
         <v>204</v>
@@ -3659,7 +3656,7 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC14" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD14">
         <v>205</v>
@@ -3670,7 +3667,7 @@
         <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C15">
         <v>2017</v>
@@ -3748,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="AC15" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD15">
         <v>205</v>
@@ -3759,7 +3756,7 @@
         <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -3837,7 +3834,7 @@
         <v>15.8</v>
       </c>
       <c r="AC16" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD16">
         <v>180</v>
@@ -3845,10 +3842,10 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C17">
         <v>2019</v>
@@ -3878,25 +3875,25 @@
         <v>51</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M17">
         <v>44.55</v>
       </c>
       <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
         <v>169</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>170</v>
-      </c>
-      <c r="P17" t="s">
-        <v>171</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S17" t="s">
         <v>58</v>
@@ -3926,7 +3923,7 @@
         <v>17</v>
       </c>
       <c r="AC17" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD17">
         <v>182</v>
@@ -3934,16 +3931,16 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C18">
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>2652</v>
@@ -3967,13 +3964,13 @@
         <v>68</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M18">
         <v>46.22</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
         <v>95</v>
@@ -3985,10 +3982,10 @@
         <v>101</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T18" s="4">
         <v>44286</v>
@@ -4015,7 +4012,7 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC18" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD18">
         <v>182</v>
@@ -4023,10 +4020,10 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -4056,7 +4053,7 @@
         <v>96</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M19">
         <v>44.869</v>
@@ -4068,13 +4065,13 @@
         <v>63</v>
       </c>
       <c r="P19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>180</v>
+      </c>
+      <c r="R19" t="s">
         <v>181</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>182</v>
-      </c>
-      <c r="R19" t="s">
-        <v>183</v>
       </c>
       <c r="S19" t="s">
         <v>36</v>
@@ -4107,7 +4104,7 @@
         <v>17.2</v>
       </c>
       <c r="AC19" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD19">
         <v>183</v>
@@ -4115,16 +4112,16 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>642</v>
       </c>
       <c r="B20" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C20">
         <v>2023</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20">
         <v>4166</v>
@@ -4145,19 +4142,19 @@
         <v>1738</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M20">
         <v>44.744</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P20" t="s">
         <v>93</v>
@@ -4166,10 +4163,10 @@
         <v>164</v>
       </c>
       <c r="R20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T20" s="4">
         <v>45014</v>
@@ -4199,7 +4196,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AC20" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD20">
         <v>182</v>
@@ -4207,16 +4204,16 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C21">
         <v>2019</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>3789</v>
@@ -4240,7 +4237,7 @@
         <v>100</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M21">
         <v>42.784999999999997</v>
@@ -4249,16 +4246,16 @@
         <v>60</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="S21" t="s">
         <v>58</v>
@@ -4273,10 +4270,10 @@
         <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z21" s="2">
         <v>1.5145833333333329</v>
@@ -4288,7 +4285,7 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC21" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD21">
         <v>204</v>
@@ -4296,16 +4293,16 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C22">
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22">
         <v>1600</v>
@@ -4329,7 +4326,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M22">
         <v>43.24</v>
@@ -4341,16 +4338,16 @@
         <v>50</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T22" s="4">
         <v>44281</v>
@@ -4362,10 +4359,10 @@
         <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z22" s="2">
         <v>1.510416666666667</v>
@@ -4377,7 +4374,7 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC22" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD22">
         <v>204</v>
@@ -4385,10 +4382,10 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -4415,31 +4412,31 @@
         <v>4221</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M23">
         <v>43.997</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q23" t="s">
         <v>104</v>
       </c>
       <c r="R23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T23" s="4">
         <v>44645</v>
@@ -4451,10 +4448,10 @@
         <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y23">
         <v>16</v>
@@ -4469,7 +4466,7 @@
         <v>15.633333333333301</v>
       </c>
       <c r="AC23" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD23">
         <v>204</v>
@@ -4477,10 +4474,10 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -4507,10 +4504,10 @@
         <v>4221</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M24">
         <v>42.970999999999997</v>
@@ -4522,13 +4519,13 @@
         <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S24" t="s">
         <v>58</v>
@@ -4543,10 +4540,10 @@
         <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Y24">
         <v>13</v>
@@ -4561,7 +4558,7 @@
         <v>17.3</v>
       </c>
       <c r="AC24" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD24">
         <v>204</v>
@@ -4569,16 +4566,16 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C25">
         <v>2017</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E25">
         <v>11652</v>
@@ -4599,28 +4596,28 @@
         <v>6050</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M25">
         <v>44.06</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
         <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="S25" t="s">
         <v>36</v>
@@ -4635,10 +4632,10 @@
         <v>43</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z25" s="2">
         <v>1.5034722222222221</v>
@@ -4650,7 +4647,7 @@
         <v>17.066666666666599</v>
       </c>
       <c r="AC25" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD25">
         <v>248</v>
@@ -4658,10 +4655,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C26">
         <v>2018</v>
@@ -4691,25 +4688,25 @@
         <v>88</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M26">
         <v>42.61</v>
       </c>
       <c r="N26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S26" t="s">
         <v>58</v>
@@ -4724,10 +4721,10 @@
         <v>46</v>
       </c>
       <c r="W26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z26" s="2">
         <v>1.4826388888888891</v>
@@ -4739,7 +4736,7 @@
         <v>17.066666666666599</v>
       </c>
       <c r="AC26" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD26">
         <v>250</v>
@@ -4747,16 +4744,16 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C27">
         <v>2019</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E27">
         <v>11107</v>
@@ -4780,25 +4777,25 @@
         <v>76</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M27">
         <v>45.901000000000003</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P27" t="s">
         <v>50</v>
       </c>
       <c r="Q27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="S27" t="s">
         <v>85</v>
@@ -4813,10 +4810,10 @@
         <v>37</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z27" s="2">
         <v>1.552083333333333</v>
@@ -4828,7 +4825,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AC27" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD27">
         <v>251</v>
@@ -4836,10 +4833,10 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -4866,10 +4863,10 @@
         <v>2754</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M28">
         <v>43.68</v>
@@ -4881,13 +4878,13 @@
         <v>133</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S28" t="s">
         <v>58</v>
@@ -4902,10 +4899,10 @@
         <v>33</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z28" s="2">
         <v>1.4291666666666669</v>
@@ -4917,7 +4914,7 @@
         <v>16.7</v>
       </c>
       <c r="AC28" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD28">
         <v>232</v>
@@ -4925,10 +4922,10 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -4958,13 +4955,13 @@
         <v>61</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M29">
         <v>43.46</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s">
         <v>133</v>
@@ -4976,7 +4973,7 @@
         <v>64</v>
       </c>
       <c r="R29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S29" t="s">
         <v>58</v>
@@ -4991,10 +4988,10 @@
         <v>36</v>
       </c>
       <c r="W29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z29" s="2">
         <v>1.46875</v>
@@ -5006,7 +5003,7 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC29" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD29">
         <v>251</v>
@@ -5014,10 +5011,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -5047,13 +5044,13 @@
         <v>103</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M30">
         <v>44.171999999999997</v>
       </c>
       <c r="N30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O30" t="s">
         <v>105</v>
@@ -5062,10 +5059,10 @@
         <v>84</v>
       </c>
       <c r="Q30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S30" t="s">
         <v>58</v>
@@ -5080,10 +5077,10 @@
         <v>35</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y30">
         <v>13</v>
@@ -5098,7 +5095,7 @@
         <v>18</v>
       </c>
       <c r="AC30" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD30">
         <v>249</v>
@@ -5106,16 +5103,16 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C31">
         <v>2023</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31">
         <v>4166</v>
@@ -5136,10 +5133,10 @@
         <v>1738</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M31">
         <v>44.77</v>
@@ -5151,16 +5148,16 @@
         <v>162</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q31" t="s">
         <v>164</v>
       </c>
       <c r="R31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T31" s="4">
         <v>45011</v>
@@ -5172,10 +5169,10 @@
         <v>34</v>
       </c>
       <c r="W31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y31">
         <v>8</v>
@@ -5190,7 +5187,7 @@
         <v>18.133333333333301</v>
       </c>
       <c r="AC31" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD31">
         <v>260</v>
@@ -5198,10 +5195,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C32">
         <v>2017</v>
@@ -5228,31 +5225,31 @@
         <v>7433</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M32">
         <v>38.119999999999997</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q32" t="s">
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T32" s="4">
         <v>42844</v>
@@ -5264,10 +5261,10 @@
         <v>161</v>
       </c>
       <c r="W32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z32" s="2">
         <v>1.506944444444444</v>
@@ -5279,7 +5276,7 @@
         <v>17.6666666666666</v>
       </c>
       <c r="AC32" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD32">
         <v>203</v>
@@ -5287,10 +5284,10 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C33">
         <v>2018</v>
@@ -5320,7 +5317,7 @@
         <v>29</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M33">
         <v>40.56</v>
@@ -5329,7 +5326,7 @@
         <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P33" t="s">
         <v>44</v>
@@ -5338,10 +5335,10 @@
         <v>64</v>
       </c>
       <c r="R33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T33" s="4">
         <v>43208</v>
@@ -5353,10 +5350,10 @@
         <v>187</v>
       </c>
       <c r="W33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z33" s="2">
         <v>1.46875</v>
@@ -5368,7 +5365,7 @@
         <v>16.933333333333302</v>
       </c>
       <c r="AC33" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD33">
         <v>197</v>
@@ -5376,10 +5373,10 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C34">
         <v>2019</v>
@@ -5409,7 +5406,7 @@
         <v>100</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M34">
         <v>39.630000000000003</v>
@@ -5418,7 +5415,7 @@
         <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P34" t="s">
         <v>125</v>
@@ -5427,7 +5424,7 @@
         <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s">
         <v>36</v>
@@ -5442,10 +5439,10 @@
         <v>179</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="X34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z34" s="2">
         <v>1.552083333333333</v>
@@ -5457,7 +5454,7 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC34" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AD34">
         <v>194</v>
@@ -5465,10 +5462,10 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C35">
         <v>2020</v>
@@ -5495,10 +5492,10 @@
         <v>2196</v>
       </c>
       <c r="K35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M35">
         <v>41.9</v>
@@ -5507,16 +5504,16 @@
         <v>70</v>
       </c>
       <c r="O35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P35" t="s">
         <v>129</v>
       </c>
       <c r="Q35" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S35" t="s">
         <v>58</v>
@@ -5531,10 +5528,10 @@
         <v>167</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="X35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z35" s="2">
         <v>1.479166666666667</v>
@@ -5546,7 +5543,7 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC35" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AD35">
         <v>199</v>
@@ -5554,10 +5551,10 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -5587,25 +5584,25 @@
         <v>100</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M36">
         <v>42.024000000000001</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s">
         <v>47</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q36" t="s">
         <v>129</v>
       </c>
       <c r="R36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
@@ -5620,10 +5617,10 @@
         <v>158</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z36" s="2">
         <v>1.4826388888888891</v>
@@ -5635,7 +5632,7 @@
         <v>2.0666666666666602</v>
       </c>
       <c r="AC36" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AD36">
         <v>192</v>
@@ -5643,16 +5640,16 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C37">
         <v>2022</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E37">
         <v>2073</v>
@@ -5673,10 +5670,10 @@
         <v>2248</v>
       </c>
       <c r="K37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M37">
         <v>42.97</v>
@@ -5685,16 +5682,16 @@
         <v>47</v>
       </c>
       <c r="O37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P37" t="s">
         <v>55</v>
       </c>
       <c r="Q37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
@@ -5709,10 +5706,10 @@
         <v>173</v>
       </c>
       <c r="W37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y37">
         <v>14</v>
@@ -5727,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="AC37" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AD37">
         <v>202</v>
@@ -5735,10 +5732,10 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -5768,25 +5765,25 @@
         <v>76</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M38">
         <v>43.52</v>
       </c>
       <c r="N38" t="s">
+        <v>291</v>
+      </c>
+      <c r="O38" t="s">
+        <v>292</v>
+      </c>
+      <c r="P38" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>293</v>
+      </c>
+      <c r="R38" t="s">
         <v>294</v>
-      </c>
-      <c r="O38" t="s">
-        <v>295</v>
-      </c>
-      <c r="P38" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>296</v>
-      </c>
-      <c r="R38" t="s">
-        <v>297</v>
       </c>
       <c r="S38" t="s">
         <v>58</v>
@@ -5801,10 +5798,10 @@
         <v>167</v>
       </c>
       <c r="W38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="X38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y38">
         <v>14</v>
@@ -5819,7 +5816,7 @@
         <v>1.36666666666666</v>
       </c>
       <c r="AC38" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AD38">
         <v>193</v>
@@ -5827,10 +5824,10 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C39">
         <v>2017</v>
@@ -5857,16 +5854,16 @@
         <v>7433</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M39">
         <v>40.270000000000003</v>
       </c>
       <c r="N39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s">
         <v>31</v>
@@ -5875,10 +5872,10 @@
         <v>64</v>
       </c>
       <c r="Q39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S39" t="s">
         <v>58</v>
@@ -5893,10 +5890,10 @@
         <v>175</v>
       </c>
       <c r="W39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z39" s="2">
         <v>1.475694444444444</v>
@@ -5908,7 +5905,7 @@
         <v>4.4666666666666597</v>
       </c>
       <c r="AC39" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AD39">
         <v>264</v>
@@ -5916,16 +5913,16 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C40">
         <v>2018</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40">
         <v>1220</v>
@@ -5949,28 +5946,28 @@
         <v>29</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M40">
         <v>40.31</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P40" t="s">
         <v>55</v>
       </c>
       <c r="Q40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="R40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T40" s="4">
         <v>43212</v>
@@ -5982,10 +5979,10 @@
         <v>178</v>
       </c>
       <c r="W40" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z40" s="2">
         <v>1.4236111111111109</v>
@@ -5997,7 +5994,7 @@
         <v>1.36666666666666</v>
       </c>
       <c r="AC40" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AD40">
         <v>258</v>
@@ -6005,10 +6002,10 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C41">
         <v>2019</v>
@@ -6038,28 +6035,28 @@
         <v>42</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M41">
         <v>38.630000000000003</v>
       </c>
       <c r="N41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O41" t="s">
         <v>56</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T41" s="4">
         <v>43583</v>
@@ -6071,10 +6068,10 @@
         <v>158</v>
       </c>
       <c r="W41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Z41" s="2">
         <v>1.506944444444444</v>
@@ -6086,7 +6083,7 @@
         <v>15.133333333333301</v>
       </c>
       <c r="AC41" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD41">
         <v>258</v>
@@ -6094,16 +6091,16 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C42">
         <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E42">
         <v>1877</v>
@@ -6150,10 +6147,10 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -6183,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M43">
         <v>38.92</v>
@@ -6192,16 +6189,16 @@
         <v>55</v>
       </c>
       <c r="O43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P43" t="s">
         <v>47</v>
       </c>
       <c r="Q43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S43" t="s">
         <v>58</v>
@@ -6216,10 +6213,10 @@
         <v>181</v>
       </c>
       <c r="W43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Z43" s="2">
         <v>1.427083333333333</v>
@@ -6231,7 +6228,7 @@
         <v>15.733333333333301</v>
       </c>
       <c r="AC43" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD43">
         <v>258</v>
@@ -6239,10 +6236,10 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -6269,31 +6266,31 @@
         <v>1276</v>
       </c>
       <c r="K44" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M44">
         <v>41.412999999999997</v>
       </c>
       <c r="N44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O44" t="s">
         <v>60</v>
       </c>
       <c r="P44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="R44" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="T44" s="4">
         <v>44675</v>
@@ -6305,10 +6302,10 @@
         <v>182</v>
       </c>
       <c r="W44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y44">
         <v>14</v>
@@ -6323,7 +6320,7 @@
         <v>15.466666666666599</v>
       </c>
       <c r="AC44" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD44">
         <v>257</v>
@@ -6331,10 +6328,10 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -6361,10 +6358,10 @@
         <v>1276</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M45">
         <v>41.206000000000003</v>
@@ -6373,19 +6370,19 @@
         <v>63</v>
       </c>
       <c r="O45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P45" t="s">
         <v>78</v>
       </c>
       <c r="Q45" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="R45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S45" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T45" s="4">
         <v>45039</v>
@@ -6397,10 +6394,10 @@
         <v>175</v>
       </c>
       <c r="W45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y45">
         <v>12</v>
@@ -6415,7 +6412,7 @@
         <v>15.233333333333301</v>
       </c>
       <c r="AC45" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD45">
         <v>258</v>
@@ -6423,10 +6420,10 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C46">
         <v>2017</v>
@@ -6453,10 +6450,10 @@
         <v>3579</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M46">
         <v>40.729999999999997</v>
@@ -6468,13 +6465,13 @@
         <v>55</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R46" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="S46" t="s">
         <v>58</v>
@@ -6489,10 +6486,10 @@
         <v>65</v>
       </c>
       <c r="W46" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z46" s="2">
         <v>1.4513888888888891</v>
@@ -6504,7 +6501,7 @@
         <v>16.3333333333333</v>
       </c>
       <c r="AC46" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD46">
         <v>291</v>
@@ -6512,16 +6509,16 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C47">
         <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E47">
         <v>4763</v>
@@ -6545,7 +6542,7 @@
         <v>109</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M47">
         <v>40.21</v>
@@ -6557,16 +6554,16 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q47" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="R47" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="S47" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="T47" s="4">
         <v>43176</v>
@@ -6578,10 +6575,10 @@
         <v>61</v>
       </c>
       <c r="W47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z47" s="2">
         <v>1.40625</v>
@@ -6593,7 +6590,7 @@
         <v>16.8</v>
       </c>
       <c r="AC47" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD47">
         <v>293</v>
@@ -6601,10 +6598,10 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C48">
         <v>2019</v>
@@ -6634,13 +6631,13 @@
         <v>100</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M48">
         <v>43.625</v>
       </c>
       <c r="N48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O48" t="s">
         <v>31</v>
@@ -6649,10 +6646,10 @@
         <v>46</v>
       </c>
       <c r="Q48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R48" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S48" t="s">
         <v>58</v>
@@ -6667,10 +6664,10 @@
         <v>60</v>
       </c>
       <c r="W48" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X48" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z48" s="2">
         <v>1.4236111111111109</v>
@@ -6682,7 +6679,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AC48" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD48">
         <v>291</v>
@@ -6690,10 +6687,10 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C49">
         <v>2020</v>
@@ -6723,7 +6720,7 @@
         <v>61</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M49">
         <v>41.96</v>
@@ -6738,10 +6735,10 @@
         <v>46</v>
       </c>
       <c r="Q49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R49" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S49" t="s">
         <v>36</v>
@@ -6756,10 +6753,10 @@
         <v>68</v>
       </c>
       <c r="W49" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z49" s="2">
         <v>1.458333333333333</v>
@@ -6771,7 +6768,7 @@
         <v>14.533333333333299</v>
       </c>
       <c r="AC49" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD49">
         <v>305</v>
@@ -6779,10 +6776,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -6809,10 +6806,10 @@
         <v>3266</v>
       </c>
       <c r="K50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M50">
         <v>45.06</v>
@@ -6830,7 +6827,7 @@
         <v>50</v>
       </c>
       <c r="R50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S50" t="s">
         <v>36</v>
@@ -6845,10 +6842,10 @@
         <v>59</v>
       </c>
       <c r="W50" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X50" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z50" s="2">
         <v>1.416666666666667</v>
@@ -6860,7 +6857,7 @@
         <v>14.299999999999899</v>
       </c>
       <c r="AC50" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD50">
         <v>299</v>
@@ -6868,16 +6865,16 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C51">
         <v>2022</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E51">
         <v>2947</v>
@@ -6898,16 +6895,16 @@
         <v>2810</v>
       </c>
       <c r="K51" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M51">
         <v>45.331000000000003</v>
       </c>
       <c r="N51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O51" t="s">
         <v>50</v>
@@ -6919,10 +6916,10 @@
         <v>75</v>
       </c>
       <c r="R51" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="T51" s="4">
         <v>44639</v>
@@ -6934,10 +6931,10 @@
         <v>63</v>
       </c>
       <c r="W51" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X51" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Z51" s="2">
         <v>1.4236111111111109</v>
@@ -6949,7 +6946,7 @@
         <v>15.966666666666599</v>
       </c>
       <c r="AC51" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD51">
         <v>293</v>
@@ -6957,10 +6954,10 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C52">
         <v>2023</v>
@@ -6987,16 +6984,16 @@
         <v>3090</v>
       </c>
       <c r="K52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M52">
         <v>45.773000000000003</v>
       </c>
       <c r="N52" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O52" t="s">
         <v>60</v>
@@ -7005,13 +7002,13 @@
         <v>75</v>
       </c>
       <c r="Q52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="S52" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T52" s="4">
         <v>45003</v>
@@ -7023,10 +7020,10 @@
         <v>63</v>
       </c>
       <c r="W52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="X52" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Y52">
         <v>14</v>
@@ -7041,7 +7038,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AC52" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD52">
         <v>293</v>
@@ -7049,16 +7046,16 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C53">
         <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E53">
         <v>11652</v>
@@ -7079,10 +7076,10 @@
         <v>6050</v>
       </c>
       <c r="K53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M53">
         <v>40.32</v>
@@ -7094,13 +7091,13 @@
         <v>162</v>
       </c>
       <c r="P53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q53" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="S53" t="s">
         <v>58</v>
@@ -7115,10 +7112,10 @@
         <v>33</v>
       </c>
       <c r="W53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="X53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Z53" s="2">
         <v>1.5173611111111109</v>
@@ -7130,7 +7127,7 @@
         <v>16.8</v>
       </c>
       <c r="AC53" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD53">
         <v>198</v>
@@ -7138,10 +7135,10 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C54">
         <v>2018</v>
@@ -7171,13 +7168,13 @@
         <v>42</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M54">
         <v>40.56</v>
       </c>
       <c r="N54" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O54" t="s">
         <v>162</v>
@@ -7189,10 +7186,10 @@
         <v>28</v>
       </c>
       <c r="R54" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="S54" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="T54" s="4">
         <v>43155</v>
@@ -7204,10 +7201,10 @@
         <v>58</v>
       </c>
       <c r="W54" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="X54" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Z54" s="2">
         <v>1.489583333333333</v>
@@ -7219,7 +7216,7 @@
         <v>18.3333333333333</v>
       </c>
       <c r="AC54" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD54">
         <v>198</v>
@@ -7227,16 +7224,16 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>384</v>
+        <v>643</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C55">
         <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E55">
         <v>3789</v>
@@ -7260,13 +7257,13 @@
         <v>100</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M55">
         <v>40.915999999999997</v>
       </c>
       <c r="N55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O55" t="s">
         <v>112</v>
@@ -7275,13 +7272,13 @@
         <v>80</v>
       </c>
       <c r="Q55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R55" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="S55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="T55" s="4">
         <v>43526</v>
@@ -7293,10 +7290,10 @@
         <v>47</v>
       </c>
       <c r="W55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="X55" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Z55" s="2">
         <v>1.489583333333333</v>
@@ -7308,7 +7305,7 @@
         <v>18</v>
       </c>
       <c r="AC55" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD55">
         <v>200</v>
@@ -7316,10 +7313,10 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -7346,10 +7343,10 @@
         <v>3266</v>
       </c>
       <c r="K56" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M56">
         <v>39.549999999999997</v>
@@ -7358,16 +7355,16 @@
         <v>151</v>
       </c>
       <c r="O56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P56" t="s">
         <v>133</v>
       </c>
       <c r="Q56" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R56" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S56" t="s">
         <v>36</v>
@@ -7382,10 +7379,10 @@
         <v>49</v>
       </c>
       <c r="W56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="X56" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Z56" s="2">
         <v>1.4881944444444439</v>
@@ -7397,7 +7394,7 @@
         <v>9.93333333333333</v>
       </c>
       <c r="AC56" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD56">
         <v>200</v>
@@ -7405,10 +7402,10 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>394</v>
+        <v>644</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -7438,25 +7435,25 @@
         <v>100</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M57">
         <v>42.5</v>
       </c>
       <c r="N57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O57" t="s">
         <v>162</v>
       </c>
       <c r="P57" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q57" t="s">
         <v>28</v>
       </c>
       <c r="R57" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="S57" t="s">
         <v>85</v>
@@ -7471,10 +7468,10 @@
         <v>47</v>
       </c>
       <c r="W57" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="X57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Z57" s="2">
         <v>1.4722222222222221</v>
@@ -7486,7 +7483,7 @@
         <v>10.7666666666666</v>
       </c>
       <c r="AC57" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="AD57">
         <v>200</v>
@@ -7494,10 +7491,10 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>645</v>
       </c>
       <c r="B58" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C58">
         <v>2022</v>
@@ -7524,10 +7521,10 @@
         <v>4221</v>
       </c>
       <c r="K58" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M58">
         <v>42.137</v>
@@ -7536,19 +7533,19 @@
         <v>108</v>
       </c>
       <c r="O58" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R58" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S58" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T58" s="4">
         <v>44618</v>
@@ -7560,10 +7557,10 @@
         <v>49</v>
       </c>
       <c r="W58" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="X58" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Z58" s="2">
         <v>1.46875</v>
@@ -7575,7 +7572,7 @@
         <v>12.8333333333333</v>
       </c>
       <c r="AC58" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AD58">
         <v>204</v>
@@ -7583,16 +7580,16 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59">
         <v>2023</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E59">
         <v>2652</v>
@@ -7613,31 +7610,31 @@
         <v>1470</v>
       </c>
       <c r="K59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M59">
         <v>42.189</v>
       </c>
       <c r="N59" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="O59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q59" t="s">
         <v>63</v>
       </c>
       <c r="R59" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="S59" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="T59" s="4">
         <v>44982</v>
@@ -7649,10 +7646,10 @@
         <v>52</v>
       </c>
       <c r="W59" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="X59" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Y59">
         <v>7</v>
@@ -7667,7 +7664,7 @@
         <v>13.4333333333333</v>
       </c>
       <c r="AC59" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD59">
         <v>207</v>
@@ -7675,16 +7672,16 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C60">
         <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E60">
         <v>11652</v>
@@ -7705,28 +7702,28 @@
         <v>6050</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M60">
         <v>45.2</v>
       </c>
       <c r="N60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O60" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P60" t="s">
         <v>84</v>
       </c>
       <c r="Q60" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="R60" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="S60" t="s">
         <v>58</v>
@@ -7741,10 +7738,10 @@
         <v>5</v>
       </c>
       <c r="W60" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="X60" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Z60" s="2">
         <v>1.479166666666667</v>
@@ -7756,7 +7753,7 @@
         <v>10.1666666666666</v>
       </c>
       <c r="AC60" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD60">
         <v>257</v>
@@ -7764,10 +7761,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C61">
         <v>2018</v>
@@ -7797,25 +7794,25 @@
         <v>88</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M61">
         <v>43.55</v>
       </c>
       <c r="N61" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="O61" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q61" t="s">
         <v>84</v>
       </c>
       <c r="R61" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="S61" t="s">
         <v>36</v>
@@ -7830,10 +7827,10 @@
         <v>4</v>
       </c>
       <c r="W61" t="s">
+        <v>407</v>
+      </c>
+      <c r="X61" t="s">
         <v>413</v>
-      </c>
-      <c r="X61" t="s">
-        <v>419</v>
       </c>
       <c r="Z61" s="2">
         <v>1.4722222222222221</v>
@@ -7845,7 +7842,7 @@
         <v>11.033333333333299</v>
       </c>
       <c r="AC61" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD61">
         <v>257</v>
@@ -7853,10 +7850,10 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C62">
         <v>2019</v>
@@ -7886,13 +7883,13 @@
         <v>100</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M62">
         <v>43.069000000000003</v>
       </c>
       <c r="N62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" t="s">
         <v>151</v>
@@ -7904,7 +7901,7 @@
         <v>46</v>
       </c>
       <c r="R62" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="S62" t="s">
         <v>36</v>
@@ -7919,10 +7916,10 @@
         <v>5</v>
       </c>
       <c r="W62" t="s">
+        <v>407</v>
+      </c>
+      <c r="X62" t="s">
         <v>413</v>
-      </c>
-      <c r="X62" t="s">
-        <v>419</v>
       </c>
       <c r="Z62" s="2">
         <v>1.552083333333333</v>
@@ -7934,7 +7931,7 @@
         <v>13.2</v>
       </c>
       <c r="AC62" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD62">
         <v>257</v>
@@ -7942,10 +7939,10 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -7972,10 +7969,10 @@
         <v>3117</v>
       </c>
       <c r="K63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M63">
         <v>42.719000000000001</v>
@@ -7987,13 +7984,13 @@
         <v>50</v>
       </c>
       <c r="P63" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q63" t="s">
         <v>151</v>
       </c>
       <c r="R63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="S63" t="s">
         <v>58</v>
@@ -8008,10 +8005,10 @@
         <v>5</v>
       </c>
       <c r="W63" t="s">
+        <v>407</v>
+      </c>
+      <c r="X63" t="s">
         <v>413</v>
-      </c>
-      <c r="X63" t="s">
-        <v>419</v>
       </c>
       <c r="Y63">
         <v>13</v>
@@ -8026,7 +8023,7 @@
         <v>6.93333333333333</v>
       </c>
       <c r="AC63" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AD63">
         <v>257</v>
@@ -8034,16 +8031,16 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C64">
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E64">
         <v>2652</v>
@@ -8067,7 +8064,7 @@
         <v>68</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M64">
         <v>45.792000000000002</v>
@@ -8076,19 +8073,19 @@
         <v>60</v>
       </c>
       <c r="O64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P64" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R64" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="S64" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="T64" s="4">
         <v>44668</v>
@@ -8100,10 +8097,10 @@
         <v>5</v>
       </c>
       <c r="W64" t="s">
+        <v>407</v>
+      </c>
+      <c r="X64" t="s">
         <v>413</v>
-      </c>
-      <c r="X64" t="s">
-        <v>419</v>
       </c>
       <c r="Y64">
         <v>17</v>
@@ -8118,7 +8115,7 @@
         <v>6.93333333333333</v>
       </c>
       <c r="AC64" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AD64">
         <v>257</v>
@@ -8126,10 +8123,10 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C65">
         <v>2023</v>
@@ -8156,10 +8153,10 @@
         <v>3090</v>
       </c>
       <c r="K65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M65">
         <v>46.841000000000001</v>
@@ -8174,13 +8171,13 @@
         <v>164</v>
       </c>
       <c r="Q65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R65" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S65" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="T65" s="4">
         <v>45025</v>
@@ -8192,10 +8189,10 @@
         <v>4</v>
       </c>
       <c r="W65" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="X65" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Y65">
         <v>16</v>
@@ -8210,7 +8207,7 @@
         <v>5.5</v>
       </c>
       <c r="AC65" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AD65">
         <v>257</v>
@@ -8218,16 +8215,16 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66">
         <v>2017</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E66">
         <v>11652</v>
@@ -8248,10 +8245,10 @@
         <v>6050</v>
       </c>
       <c r="K66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M66">
         <v>42.9</v>
@@ -8260,16 +8257,16 @@
         <v>28</v>
       </c>
       <c r="O66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P66" t="s">
         <v>153</v>
       </c>
       <c r="Q66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R66" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="S66" t="s">
         <v>58</v>
@@ -8284,10 +8281,10 @@
         <v>51</v>
       </c>
       <c r="W66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z66" s="2">
         <v>1.538194444444444</v>
@@ -8299,7 +8296,7 @@
         <v>4.8333333333333304</v>
       </c>
       <c r="AC66" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AD66">
         <v>206</v>
@@ -8307,16 +8304,16 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C67">
         <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E67">
         <v>4666</v>
@@ -8340,7 +8337,7 @@
         <v>29</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M67">
         <v>40.81</v>
@@ -8349,19 +8346,19 @@
         <v>28</v>
       </c>
       <c r="O67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q67" t="s">
         <v>71</v>
       </c>
       <c r="R67" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="S67" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="T67" s="4">
         <v>43182</v>
@@ -8373,10 +8370,10 @@
         <v>46</v>
       </c>
       <c r="W67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z67" s="2">
         <v>1.5145833333333329</v>
@@ -8388,7 +8385,7 @@
         <v>4.3999999999999897</v>
       </c>
       <c r="AC67" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD67">
         <v>206</v>
@@ -8396,10 +8393,10 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C68">
         <v>2017</v>
@@ -8429,28 +8426,28 @@
         <v>29</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M68">
         <v>40.65</v>
       </c>
       <c r="N68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O68" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q68" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R68" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="S68" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="T68" s="4">
         <v>42827</v>
@@ -8462,10 +8459,10 @@
         <v>71</v>
       </c>
       <c r="W68" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="X68" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z68" s="2">
         <v>1.489583333333333</v>
@@ -8477,7 +8474,7 @@
         <v>5.7666666666666604</v>
       </c>
       <c r="AC68" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD68">
         <v>260</v>
@@ -8485,16 +8482,16 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C69">
         <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E69">
         <v>4666</v>
@@ -8518,7 +8515,7 @@
         <v>29</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M69">
         <v>41.64</v>
@@ -8533,13 +8530,13 @@
         <v>41</v>
       </c>
       <c r="Q69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R69" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="S69" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="T69" s="4">
         <v>43191</v>
@@ -8551,10 +8548,10 @@
         <v>78</v>
       </c>
       <c r="W69" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="X69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z69" s="2">
         <v>1.447916666666667</v>
@@ -8566,7 +8563,7 @@
         <v>6.1333333333333302</v>
       </c>
       <c r="AC69" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD69">
         <v>266</v>
@@ -8574,16 +8571,16 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C70">
         <v>2019</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E70">
         <v>2442</v>
@@ -8604,31 +8601,31 @@
         <v>2080</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M70">
         <v>42.29</v>
       </c>
       <c r="N70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P70" t="s">
         <v>50</v>
       </c>
       <c r="Q70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R70" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="S70" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T70" s="4">
         <v>43562</v>
@@ -8640,10 +8637,10 @@
         <v>72</v>
       </c>
       <c r="W70" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="X70" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z70" s="2">
         <v>1.53125</v>
@@ -8655,7 +8652,7 @@
         <v>16.8333333333333</v>
       </c>
       <c r="AC70" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD70">
         <v>270</v>
@@ -8663,10 +8660,10 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C71">
         <v>2020</v>
@@ -8696,7 +8693,7 @@
         <v>96</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M71">
         <v>42.52</v>
@@ -8705,16 +8702,16 @@
         <v>60</v>
       </c>
       <c r="O71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q71" t="s">
         <v>151</v>
       </c>
       <c r="R71" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="S71" t="s">
         <v>36</v>
@@ -8729,10 +8726,10 @@
         <v>79</v>
       </c>
       <c r="W71" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="X71" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z71" s="2">
         <v>1.4604166666666669</v>
@@ -8744,7 +8741,7 @@
         <v>17.033333333333299</v>
       </c>
       <c r="AC71" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD71">
         <v>244</v>
@@ -8752,16 +8749,16 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C72">
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E72">
         <v>1600</v>
@@ -8785,7 +8782,7 @@
         <v>100</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M72">
         <v>42.13</v>
@@ -8794,7 +8791,7 @@
         <v>50</v>
       </c>
       <c r="O72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P72" t="s">
         <v>84</v>
@@ -8803,7 +8800,7 @@
         <v>162</v>
       </c>
       <c r="R72" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="S72" t="s">
         <v>36</v>
@@ -8818,10 +8815,10 @@
         <v>81</v>
       </c>
       <c r="W72" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="X72" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z72" s="2">
         <v>1.4291666666666669</v>
@@ -8833,7 +8830,7 @@
         <v>17.1666666666666</v>
       </c>
       <c r="AC72" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD72">
         <v>254</v>
@@ -8841,10 +8838,10 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C73">
         <v>2022</v>
@@ -8874,25 +8871,25 @@
         <v>96</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M73">
         <v>43.197000000000003</v>
       </c>
       <c r="N73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P73" t="s">
         <v>75</v>
       </c>
       <c r="Q73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R73" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="S73" t="s">
         <v>58</v>
@@ -8907,10 +8904,10 @@
         <v>79</v>
       </c>
       <c r="W73" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="X73" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Z73" s="2">
         <v>1.4291666666666669</v>
@@ -8922,7 +8919,7 @@
         <v>17.1666666666666</v>
       </c>
       <c r="AC73" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD73">
         <v>272</v>
@@ -8930,10 +8927,10 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C74">
         <v>2023</v>
@@ -8963,7 +8960,7 @@
         <v>76</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M74">
         <v>44.082999999999998</v>
@@ -8978,13 +8975,13 @@
         <v>60</v>
       </c>
       <c r="Q74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R74" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="S74" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T74" s="4">
         <v>45018</v>
@@ -8996,10 +8993,10 @@
         <v>76</v>
       </c>
       <c r="W74" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="X74" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Y74">
         <v>6</v>
@@ -9014,7 +9011,7 @@
         <v>18.8333333333333</v>
       </c>
       <c r="AC74" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD74">
         <v>273</v>
@@ -9022,16 +9019,16 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C75">
         <v>2017</v>
       </c>
       <c r="D75" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E75">
         <v>1908</v>
@@ -9055,25 +9052,25 @@
         <v>29</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="M75">
         <v>44.01</v>
       </c>
       <c r="N75" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O75" t="s">
         <v>97</v>
       </c>
       <c r="P75" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q75" t="s">
         <v>87</v>
       </c>
       <c r="R75" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="S75" t="s">
         <v>85</v>
@@ -9088,10 +9085,10 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="X75" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Z75" s="2">
         <v>1.564583333333333</v>
@@ -9103,7 +9100,7 @@
         <v>18.133333333333301</v>
       </c>
       <c r="AC75" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD75">
         <v>200</v>
@@ -9111,16 +9108,16 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C76">
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E76">
         <v>1883</v>
@@ -9144,7 +9141,7 @@
         <v>29</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M76">
         <v>45.57</v>
@@ -9153,16 +9150,16 @@
         <v>87</v>
       </c>
       <c r="O76" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q76" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="R76" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="S76" t="s">
         <v>85</v>
@@ -9177,10 +9174,10 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="X76" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Z76" s="2">
         <v>1.526388888888889</v>
@@ -9192,7 +9189,7 @@
         <v>18.266666666666602</v>
       </c>
       <c r="AC76" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD76">
         <v>201</v>
@@ -9200,16 +9197,16 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C77">
         <v>2019</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E77">
         <v>1883</v>
@@ -9233,25 +9230,25 @@
         <v>100</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M77">
         <v>45.503</v>
       </c>
       <c r="N77" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="O77" t="s">
+        <v>471</v>
+      </c>
+      <c r="P77" t="s">
         <v>478</v>
       </c>
-      <c r="P77" t="s">
-        <v>485</v>
-      </c>
       <c r="Q77" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="R77" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="S77" t="s">
         <v>85</v>
@@ -9266,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="X77" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Z77" s="2">
         <v>1.6131944444444439</v>
@@ -9281,7 +9278,7 @@
         <v>12.8</v>
       </c>
       <c r="AC77" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD77">
         <v>204</v>
@@ -9289,10 +9286,10 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -9322,16 +9319,16 @@
         <v>92</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="M78">
         <v>48.45</v>
       </c>
       <c r="N78" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="O78" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P78" t="s">
         <v>95</v>
@@ -9340,7 +9337,7 @@
         <v>93</v>
       </c>
       <c r="R78" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="S78" t="s">
         <v>85</v>
@@ -9355,10 +9352,10 @@
         <v>5</v>
       </c>
       <c r="W78" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="X78" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Z78" s="2">
         <v>1.604166666666667</v>
@@ -9370,7 +9367,7 @@
         <v>13.066666666666601</v>
       </c>
       <c r="AC78" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD78">
         <v>177</v>
@@ -9378,10 +9375,10 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C79">
         <v>2021</v>
@@ -9411,25 +9408,25 @@
         <v>96</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M79">
         <v>47.753999999999998</v>
       </c>
       <c r="N79" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="O79" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q79" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="R79" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="S79" t="s">
         <v>85</v>
@@ -9444,10 +9441,10 @@
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="X79" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Z79" s="2">
         <v>1.5326388888888891</v>
@@ -9459,7 +9456,7 @@
         <v>12.8</v>
       </c>
       <c r="AC79" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD79">
         <v>194</v>
@@ -9467,16 +9464,16 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C80">
         <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E80">
         <v>11107</v>
@@ -9500,25 +9497,25 @@
         <v>103</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M80">
         <v>48.457000000000001</v>
       </c>
       <c r="N80" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O80" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P80" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q80" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="R80" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="S80" t="s">
         <v>156</v>
@@ -9533,10 +9530,10 @@
         <v>1</v>
       </c>
       <c r="W80" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="X80" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Y80">
         <v>11</v>
@@ -9551,7 +9548,7 @@
         <v>16.6666666666666</v>
       </c>
       <c r="AC80" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD80">
         <v>199</v>
@@ -9559,10 +9556,10 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B81" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C81">
         <v>2023</v>
@@ -9589,28 +9586,28 @@
         <v>2278</v>
       </c>
       <c r="K81" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M81">
         <v>46.372</v>
       </c>
       <c r="N81" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="O81" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P81" t="s">
         <v>154</v>
       </c>
       <c r="Q81" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="R81" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="S81" t="s">
         <v>85</v>
@@ -9625,10 +9622,10 @@
         <v>1</v>
       </c>
       <c r="W81" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="X81" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Y81">
         <v>12</v>
@@ -9643,7 +9640,7 @@
         <v>16.6666666666666</v>
       </c>
       <c r="AC81" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD81">
         <v>205</v>
@@ -9651,10 +9648,10 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C82">
         <v>2017</v>
@@ -9681,31 +9678,31 @@
         <v>3579</v>
       </c>
       <c r="K82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M82">
         <v>37.14</v>
       </c>
       <c r="N82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O82" t="s">
         <v>112</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q82" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="R82" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="S82" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="T82" s="4">
         <v>42798</v>
@@ -9717,10 +9714,10 @@
         <v>147</v>
       </c>
       <c r="W82" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X82" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z82" s="2">
         <v>1.4861111111111109</v>
@@ -9732,7 +9729,7 @@
         <v>16.566666666666599</v>
       </c>
       <c r="AC82" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD82">
         <v>175</v>
@@ -9740,10 +9737,10 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C83">
         <v>2018</v>
@@ -9773,13 +9770,13 @@
         <v>92</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="M83">
         <v>36.369999999999997</v>
       </c>
       <c r="N83" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O83" t="s">
         <v>60</v>
@@ -9788,13 +9785,13 @@
         <v>47</v>
       </c>
       <c r="Q83" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="R83" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="S83" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="T83" s="4">
         <v>43162</v>
@@ -9806,10 +9803,10 @@
         <v>155</v>
       </c>
       <c r="W83" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X83" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z83" s="2">
         <v>1.447916666666667</v>
@@ -9821,7 +9818,7 @@
         <v>17.266666666666602</v>
       </c>
       <c r="AC83" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD83">
         <v>184</v>
@@ -9829,10 +9826,10 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C84">
         <v>2019</v>
@@ -9862,7 +9859,7 @@
         <v>100</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M84">
         <v>38.436</v>
@@ -9874,13 +9871,13 @@
         <v>60</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q84" t="s">
         <v>71</v>
       </c>
       <c r="R84" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="S84" t="s">
         <v>36</v>
@@ -9895,10 +9892,10 @@
         <v>151</v>
       </c>
       <c r="W84" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X84" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z84" s="2">
         <v>1.447916666666667</v>
@@ -9910,7 +9907,7 @@
         <v>17.033333333333299</v>
       </c>
       <c r="AC84" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD84">
         <v>183</v>
@@ -9918,10 +9915,10 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B85" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C85">
         <v>2020</v>
@@ -9951,28 +9948,28 @@
         <v>61</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M85">
         <v>36.93</v>
       </c>
       <c r="N85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O85" t="s">
         <v>56</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q85" t="s">
         <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="S85" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="T85" s="4">
         <v>44044</v>
@@ -9984,10 +9981,10 @@
         <v>159</v>
       </c>
       <c r="W85" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X85" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z85" s="2">
         <v>1.572916666666667</v>
@@ -9999,7 +9996,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AC85" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD85">
         <v>183</v>
@@ -10007,10 +10004,10 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C86">
         <v>2021</v>
@@ -10040,7 +10037,7 @@
         <v>96</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M86">
         <v>39.36</v>
@@ -10049,7 +10046,7 @@
         <v>55</v>
       </c>
       <c r="O86" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="P86" t="s">
         <v>60</v>
@@ -10058,10 +10055,10 @@
         <v>63</v>
       </c>
       <c r="R86" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="S86" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="T86" s="4">
         <v>44261</v>
@@ -10073,10 +10070,10 @@
         <v>159</v>
       </c>
       <c r="W86" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X86" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z86" s="2">
         <v>1.489583333333333</v>
@@ -10088,7 +10085,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AC86" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD86">
         <v>183</v>
@@ -10096,10 +10093,10 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C87">
         <v>2022</v>
@@ -10129,7 +10126,7 @@
         <v>76</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M87">
         <v>38.357999999999997</v>
@@ -10138,19 +10135,19 @@
         <v>47</v>
       </c>
       <c r="O87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P87" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q87" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="R87" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="S87" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="T87" s="4">
         <v>44625</v>
@@ -10162,10 +10159,10 @@
         <v>167</v>
       </c>
       <c r="W87" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X87" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Z87" s="2">
         <v>1.489583333333333</v>
@@ -10177,7 +10174,7 @@
         <v>17.766666666666602</v>
       </c>
       <c r="AC87" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD87">
         <v>184</v>
@@ -10185,10 +10182,10 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C88">
         <v>2023</v>
@@ -10218,28 +10215,28 @@
         <v>68</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M88">
         <v>40.636000000000003</v>
       </c>
       <c r="N88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O88" t="s">
         <v>71</v>
       </c>
       <c r="P88" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q88" t="s">
+        <v>527</v>
+      </c>
+      <c r="R88" t="s">
         <v>534</v>
       </c>
-      <c r="R88" t="s">
-        <v>541</v>
-      </c>
       <c r="S88" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="T88" s="4">
         <v>44989</v>
@@ -10251,10 +10248,10 @@
         <v>168</v>
       </c>
       <c r="W88" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X88" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="Y88">
         <v>13</v>
@@ -10269,7 +10266,7 @@
         <v>17.533333333333299</v>
       </c>
       <c r="AC88" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD88">
         <v>184</v>
@@ -10277,16 +10274,16 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C89">
         <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E89">
         <v>4763</v>
@@ -10319,22 +10316,22 @@
         <v>55</v>
       </c>
       <c r="O89" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P89" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="Q89" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="R89" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="S89" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="T89" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="U89" t="s">
         <v>37</v>
@@ -10343,19 +10340,19 @@
         <v>279</v>
       </c>
       <c r="W89" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="X89" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="Z89" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="AB89" s="7">
         <v>18.8333333333333</v>
       </c>
       <c r="AC89" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD89">
         <v>247</v>
@@ -10363,16 +10360,16 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C90">
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E90">
         <v>1919</v>
@@ -10393,7 +10390,7 @@
         <v>1538</v>
       </c>
       <c r="K90" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L90" s="9">
         <v>0.24539351851851851</v>
@@ -10402,25 +10399,25 @@
         <v>40.92</v>
       </c>
       <c r="N90" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P90" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="Q90" t="s">
         <v>112</v>
       </c>
       <c r="R90" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="S90" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="T90" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="U90" t="s">
         <v>37</v>
@@ -10429,19 +10426,19 @@
         <v>257</v>
       </c>
       <c r="W90" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="X90" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="Z90" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AB90" s="7">
         <v>13.2</v>
       </c>
       <c r="AC90" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="AD90">
         <v>240</v>
@@ -10449,16 +10446,16 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
       <c r="D91" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E91">
         <v>5213</v>
@@ -10479,7 +10476,7 @@
         <v>4093</v>
       </c>
       <c r="K91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L91" s="9">
         <v>0.24512731481481481</v>
@@ -10491,43 +10488,43 @@
         <v>47</v>
       </c>
       <c r="O91" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="P91" t="s">
         <v>54</v>
       </c>
       <c r="Q91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R91" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="S91" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="T91" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="U91" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="V91">
         <v>266</v>
       </c>
       <c r="W91" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="X91" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="Z91" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="AB91" s="7">
         <v>18.3666666666666</v>
       </c>
       <c r="AC91" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AD91">
         <v>243</v>
@@ -10535,10 +10532,10 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B92" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C92">
         <v>2020</v>
@@ -10574,25 +10571,25 @@
         <v>41.63</v>
       </c>
       <c r="N92" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P92" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q92" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="R92" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="S92" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="T92" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="U92" t="s">
         <v>37</v>
@@ -10601,19 +10598,19 @@
         <v>260</v>
       </c>
       <c r="W92" t="s">
+        <v>606</v>
+      </c>
+      <c r="X92" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z92" t="s">
         <v>613</v>
-      </c>
-      <c r="X92" t="s">
-        <v>614</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>620</v>
       </c>
       <c r="AB92" s="7">
         <v>18.3666666666666</v>
       </c>
       <c r="AC92" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AD92">
         <v>231</v>
@@ -10621,10 +10618,10 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B93" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C93">
         <v>2021</v>
@@ -10660,25 +10657,25 @@
         <v>39.652000000000001</v>
       </c>
       <c r="N93" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="O93" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q93" t="s">
         <v>47</v>
       </c>
       <c r="R93" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="S93" t="s">
         <v>36</v>
       </c>
       <c r="T93" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="U93" t="s">
         <v>37</v>
@@ -10687,22 +10684,22 @@
         <v>210</v>
       </c>
       <c r="W93" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="X93" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="Y93">
         <v>13</v>
       </c>
       <c r="Z93" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="AB93" s="7">
         <v>15.1</v>
       </c>
       <c r="AC93" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AD93">
         <v>239</v>
@@ -10710,10 +10707,10 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B94" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C94">
         <v>2022</v>
@@ -10749,25 +10746,25 @@
         <v>39.804000000000002</v>
       </c>
       <c r="N94" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="O94" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P94" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q94" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="R94" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="S94" t="s">
         <v>36</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="U94" t="s">
         <v>37</v>
@@ -10776,22 +10773,22 @@
         <v>278</v>
       </c>
       <c r="W94" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="X94" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="Y94">
         <v>20</v>
       </c>
       <c r="Z94" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AB94" s="7">
         <v>15.233333333333301</v>
       </c>
       <c r="AC94" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD94">
         <v>253</v>
@@ -10799,10 +10796,10 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C95">
         <v>2023</v>
@@ -10838,25 +10835,25 @@
         <v>40.162999999999997</v>
       </c>
       <c r="N95" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="O95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q95" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="R95" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S95" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="U95" t="s">
         <v>37</v>
@@ -10865,19 +10862,19 @@
         <v>206</v>
       </c>
       <c r="W95" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="X95" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="Z95" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AB95" s="7">
         <v>14.8666666666666</v>
       </c>
       <c r="AC95" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD95">
         <v>238</v>
@@ -10885,10 +10882,10 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>545</v>
+      </c>
+      <c r="B96" t="s">
         <v>552</v>
-      </c>
-      <c r="B96" t="s">
-        <v>559</v>
       </c>
       <c r="C96">
         <v>2017</v>
@@ -10927,7 +10924,7 @@
         <v>84</v>
       </c>
       <c r="O96" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="P96" t="s">
         <v>71</v>
@@ -10936,13 +10933,13 @@
         <v>133</v>
       </c>
       <c r="R96" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="S96" t="s">
         <v>58</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="U96" t="s">
         <v>90</v>
@@ -10951,19 +10948,19 @@
         <v>22</v>
       </c>
       <c r="W96" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X96" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Z96" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AB96" s="7">
         <v>15.466666666666599</v>
       </c>
       <c r="AC96" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="AD96">
         <v>202</v>
@@ -10971,10 +10968,10 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B97" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C97">
         <v>2018</v>
@@ -11001,7 +10998,7 @@
         <v>967</v>
       </c>
       <c r="K97" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L97" s="9">
         <v>0.20255787037037037</v>
@@ -11016,19 +11013,19 @@
         <v>108</v>
       </c>
       <c r="P97" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Q97" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="R97" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="S97" t="s">
         <v>85</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="U97" t="s">
         <v>37</v>
@@ -11037,19 +11034,19 @@
         <v>22</v>
       </c>
       <c r="W97" t="s">
+        <v>608</v>
+      </c>
+      <c r="X97" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z97" t="s">
         <v>615</v>
-      </c>
-      <c r="X97" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>622</v>
       </c>
       <c r="AB97" s="7">
         <v>2.36666666666666</v>
       </c>
       <c r="AC97" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD97">
         <v>202</v>
@@ -11057,16 +11054,16 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C98">
         <v>2019</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98">
         <v>1220</v>
@@ -11096,10 +11093,10 @@
         <v>42.651000000000003</v>
       </c>
       <c r="N98" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="O98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P98" t="s">
         <v>154</v>
@@ -11108,13 +11105,13 @@
         <v>151</v>
       </c>
       <c r="R98" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="S98" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="T98" s="5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="U98" t="s">
         <v>37</v>
@@ -11123,19 +11120,19 @@
         <v>40</v>
       </c>
       <c r="W98" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X98" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Z98" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AB98" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="AC98" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD98">
         <v>201</v>
@@ -11143,16 +11140,16 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C99">
         <v>2020</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E99">
         <v>1600</v>
@@ -11182,25 +11179,25 @@
         <v>41.98</v>
       </c>
       <c r="N99" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O99" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P99" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q99" t="s">
         <v>84</v>
       </c>
       <c r="R99" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="S99" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="T99" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="U99" t="s">
         <v>37</v>
@@ -11209,19 +11206,19 @@
         <v>38</v>
       </c>
       <c r="W99" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X99" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Z99" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AB99" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="AC99" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AD99">
         <v>202</v>
@@ -11229,10 +11226,10 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B100" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C100">
         <v>2021</v>
@@ -11259,7 +11256,7 @@
         <v>2754</v>
       </c>
       <c r="K100" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L100" s="9">
         <v>0.19240740740740742</v>
@@ -11268,7 +11265,7 @@
         <v>42.66</v>
       </c>
       <c r="N100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O100" t="s">
         <v>63</v>
@@ -11277,16 +11274,16 @@
         <v>133</v>
       </c>
       <c r="Q100" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="R100" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="S100" t="s">
         <v>85</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="U100" t="s">
         <v>37</v>
@@ -11295,19 +11292,19 @@
         <v>38</v>
       </c>
       <c r="W100" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X100" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="Z100" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AB100" s="7">
         <v>1.4666666666666599</v>
       </c>
       <c r="AC100" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AD100">
         <v>197</v>
@@ -11315,16 +11312,16 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C101">
         <v>2022</v>
       </c>
       <c r="D101" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E101">
         <v>1883</v>
@@ -11345,7 +11342,7 @@
         <v>654</v>
       </c>
       <c r="K101" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L101" s="9">
         <v>0.18903935185185186</v>
@@ -11357,22 +11354,22 @@
         <v>91</v>
       </c>
       <c r="O101" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P101" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="Q101" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R101" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="S101" t="s">
         <v>85</v>
       </c>
       <c r="T101" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="U101" t="s">
         <v>37</v>
@@ -11381,19 +11378,19 @@
         <v>45</v>
       </c>
       <c r="W101" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X101" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Z101" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AB101" s="7">
         <v>1.7333333333333301</v>
       </c>
       <c r="AC101" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AD101">
         <v>195</v>
@@ -11401,10 +11398,10 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B102" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C102">
         <v>2023</v>
@@ -11431,7 +11428,7 @@
         <v>2866</v>
       </c>
       <c r="K102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L102" s="9">
         <v>0.18917824074074074</v>
@@ -11440,10 +11437,10 @@
         <v>42.53</v>
       </c>
       <c r="S102" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="U102" t="s">
         <v>37</v>
@@ -11452,22 +11449,22 @@
         <v>43</v>
       </c>
       <c r="W102" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="X102" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Y102">
         <v>5</v>
       </c>
       <c r="Z102" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AB102" s="7">
         <v>0.9</v>
       </c>
       <c r="AC102" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="AD102">
         <v>191</v>
